--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.334</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.112</v>
+        <v>28.242</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.251</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.639</v>
+        <v>27.329</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.505</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.175</v>
+        <v>27.508</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.619924540170691</v>
+        <v>29.94914556057259</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.71735861970954</v>
+        <v>29.94914558293872</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.80686060342173</v>
+        <v>29.94914558993869</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.127613087708546</v>
+        <v>29.94914556990122</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.49544119572533</v>
+        <v>29.94914559462791</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.01715165664868</v>
+        <v>29.94914560236667</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.1053512144566</v>
+        <v>29.94914557702865</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.79194570229949</v>
+        <v>29.9491455986692</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.74621758458634</v>
+        <v>29.94914560544208</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.71616081890076</v>
+        <v>29.94914559493854</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.2822088411354</v>
+        <v>29.94914561882419</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.69349485235304</v>
+        <v>29.94914562630952</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.76747060465201</v>
+        <v>29.9491455906934</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.20581204281294</v>
+        <v>29.94914562472955</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.43829503497371</v>
+        <v>29.94914563538191</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.08780274606634</v>
+        <v>29.94914560735458</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.40424225562761</v>
+        <v>29.94914563139747</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.72177771090584</v>
+        <v>29.94914563871043</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.89393059526182</v>
+        <v>29.94914561832829</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.60947763687973</v>
+        <v>29.9491456449087</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.38319676764608</v>
+        <v>29.94914565299348</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.62456890460358</v>
+        <v>29.94914562690621</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.48987394165101</v>
+        <v>29.94914565016912</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>13.80014424744439</v>
+        <v>29.94914558354088</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.18469339954409</v>
+        <v>29.94914560635811</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.31387185971094</v>
+        <v>29.94914561325423</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.0328932649811</v>
+        <v>29.9491455945919</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.71804064530593</v>
+        <v>29.94914561981729</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.28360184805619</v>
+        <v>29.94914562744124</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19.1581765059923</v>
+        <v>29.9491456021292</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.12224998038941</v>
+        <v>29.94914562420621</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.11487598688915</v>
+        <v>29.94914563087861</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.02931986856771</v>
+        <v>29.94914562021863</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.87191584556101</v>
+        <v>29.94914564450595</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.33088215280964</v>
+        <v>29.94914565189692</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.87121384617175</v>
+        <v>29.9491456151078</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.74707486527068</v>
+        <v>29.94914564983041</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.03999991044283</v>
+        <v>29.94914566032473</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.83083486616925</v>
+        <v>29.94914563222953</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.4517758041647</v>
+        <v>29.94914565675007</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.81350801373141</v>
+        <v>29.94914566395295</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>15.41044357063713</v>
+        <v>29.949145645036</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.4625278173433</v>
+        <v>29.94914567214446</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.28509596870872</v>
+        <v>29.94914568010755</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23.30552722852795</v>
+        <v>29.94914565405232</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.46511794362618</v>
+        <v>29.94914567777737</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.31117538806309</v>
+        <v>29.94914558766354</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.6674514509314</v>
+        <v>29.94914561039089</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.76027381809067</v>
+        <v>29.94914561722353</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>14.74937113033918</v>
+        <v>29.94914559900254</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.40328788732866</v>
+        <v>29.94914562412857</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.92865419708965</v>
+        <v>29.94914563168235</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.88023070270845</v>
+        <v>29.9491456065413</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.81701609281714</v>
+        <v>29.94914562853135</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37.77449231638841</v>
+        <v>29.94914563514233</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.72514100460202</v>
+        <v>29.94914562451187</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.54033783883018</v>
+        <v>29.94914564868676</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>46.96114089629737</v>
+        <v>29.9491456560142</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.52547187090537</v>
+        <v>29.94914561927791</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.35822634099976</v>
+        <v>29.94914565386375</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.59574655616142</v>
+        <v>29.94914566426147</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20.50901354341905</v>
+        <v>29.94914563629902</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.09649712945833</v>
+        <v>29.94914566072189</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.42058086467199</v>
+        <v>29.9491456678582</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.31321194180438</v>
+        <v>29.94914564939868</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.32833234959666</v>
+        <v>29.94914567639918</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.1092780359929</v>
+        <v>29.94914568428867</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.21278866254942</v>
+        <v>29.94914565840949</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39.34007669796448</v>
+        <v>29.94914568204005</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>21.71630140464433</v>
+        <v>29.94914556607679</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>34.18758421668322</v>
+        <v>29.94914558872637</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>38.28481560393516</v>
+        <v>29.94914559576091</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.68127767302451</v>
+        <v>29.94914557603034</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.46220390856806</v>
+        <v>29.94914560107039</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.99249385887003</v>
+        <v>29.94914560884737</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.04769376006144</v>
+        <v>29.94914558329913</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.09545221913609</v>
+        <v>29.94914560521394</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.05722694200699</v>
+        <v>29.94914561202027</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.83312058090931</v>
+        <v>29.94914560136568</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.75436809706796</v>
+        <v>29.949145625529</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.17432229877572</v>
+        <v>29.94914563305758</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.32769666337644</v>
+        <v>29.94914559684681</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.33583298190611</v>
+        <v>29.94914563131431</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>53.58012027728243</v>
+        <v>29.94914564201927</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.9730818475944</v>
+        <v>29.94914561367809</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>39.69850539569375</v>
+        <v>29.94914563802422</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>44.02664100894712</v>
+        <v>29.9491456453729</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>23.26678982822345</v>
+        <v>29.94914562531872</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>38.43427218262693</v>
+        <v>29.94914565223438</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>43.21974624776159</v>
+        <v>29.94914566035866</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.41567234675198</v>
+        <v>29.94914563405468</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>44.67610731290307</v>
+        <v>29.94914565761099</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.66436608168438</v>
+        <v>29.94914565724483</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.23375806494082</v>
+        <v>29.94914564539473</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.16129930096204</v>
+        <v>29.94914567109102</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.84977205816283</v>
+        <v>29.94914567889158</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.06170918415917</v>
+        <v>29.94914563928246</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>40.35716530274543</v>
+        <v>29.94914567587024</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>46.93756827054145</v>
+        <v>29.94914568699889</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.97636963877707</v>
+        <v>29.94914565762251</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.26612890611744</v>
+        <v>29.94914568094157</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37.57683594209291</v>
+        <v>29.94914568789283</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>18.51226988762286</v>
+        <v>29.94914567000604</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.19843393474948</v>
+        <v>29.94914569578622</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.96483385103389</v>
+        <v>29.94914570347113</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.49819058230077</v>
+        <v>29.94914567912032</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.33819006669879</v>
+        <v>29.94914570168288</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.50616728482079</v>
+        <v>29.94914570840864</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.91547404187459</v>
+        <v>29.94914569658765</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>49.96848632484801</v>
+        <v>29.94914572143912</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>54.6831066541034</v>
+        <v>29.94914572877353</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.03977629596203</v>
+        <v>29.94914568899544</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>50.29358399938484</v>
+        <v>29.94914572448172</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>56.86402577073065</v>
+        <v>29.94914573505995</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.68233402627416</v>
+        <v>29.94914568474658</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.18326544802382</v>
+        <v>29.94914567269623</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>46.40355268236267</v>
+        <v>29.94914569881156</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>51.14534941201745</v>
+        <v>29.94914570651056</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.7860851361202</v>
+        <v>29.94914566565178</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.54555025425397</v>
+        <v>29.94914570296643</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>53.19328911105676</v>
+        <v>29.94914571392757</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.12268949155761</v>
+        <v>29.94914568204462</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.70551363362328</v>
+        <v>29.94914570582238</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.05982649180594</v>
+        <v>29.94914571266143</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24.44216695598311</v>
+        <v>29.94914569620671</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.45222475565295</v>
+        <v>29.94914572249401</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>44.26682731844893</v>
+        <v>29.94914573005486</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.60151104752217</v>
+        <v>29.94914570574292</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.72473867590324</v>
+        <v>29.9491457287493</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.9348760715699</v>
+        <v>29.94914573536649</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.28381237535537</v>
+        <v>29.94914572333919</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.61708676635611</v>
+        <v>29.94914574859039</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>61.3842565117137</v>
+        <v>29.94914575582063</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.17746293707518</v>
+        <v>29.94914571484212</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.87784824495668</v>
+        <v>29.94914575102646</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>63.51472948654833</v>
+        <v>29.94914576143392</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43.52089577760064</v>
+        <v>29.94914568894486</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36.05954262982116</v>
+        <v>29.94914567692392</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.24602050150114</v>
+        <v>29.94914570291631</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>53.94803110531844</v>
+        <v>29.94914571054851</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.61709738507281</v>
+        <v>29.94914566975959</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>49.32555809285904</v>
+        <v>29.94914570692562</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>55.91592025266598</v>
+        <v>29.94914571778546</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.69978330497489</v>
+        <v>29.9491456856992</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>41.24664002851075</v>
+        <v>29.9491457093837</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.56301954674839</v>
+        <v>29.94914571615708</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.22599435374775</v>
+        <v>29.94914570013313</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.19631267062412</v>
+        <v>29.94914572631732</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.96897713588897</v>
+        <v>29.94914573380557</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>35.38717067554244</v>
+        <v>29.94914570965815</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>48.47566498978959</v>
+        <v>29.9491457325743</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>52.64913045912938</v>
+        <v>29.94914573912794</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>46.03097026693453</v>
+        <v>29.94914572712824</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>59.32652251799122</v>
+        <v>29.94914575226169</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>64.05301787448785</v>
+        <v>29.94914575942645</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>38.88038490216476</v>
+        <v>29.94914571852508</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>59.52594803931039</v>
+        <v>29.94914575456748</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>66.10501590673582</v>
+        <v>29.94914576487501</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>48.86087674519682</v>
+        <v>29.94914566472128</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.22691670242551</v>
+        <v>29.94914565269443</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>54.54768615529727</v>
+        <v>29.94914567868653</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>59.24791740003684</v>
+        <v>29.9491456865313</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.47278637130249</v>
+        <v>29.94914564627804</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>54.39156491509833</v>
+        <v>29.94914568332729</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>60.98815588789481</v>
+        <v>29.94914569451031</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.3390288174681</v>
+        <v>29.94914566426097</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>46.03050036582644</v>
+        <v>29.94914568787616</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.35225440296702</v>
+        <v>29.9491456948577</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.36771580077979</v>
+        <v>29.94914567730654</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>46.49778026390585</v>
+        <v>29.94914570341412</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.27643406864841</v>
+        <v>29.94914571113251</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>39.76413834428727</v>
+        <v>29.94914568658032</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.99224793589296</v>
+        <v>29.94914570942942</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>57.17093667852075</v>
+        <v>29.94914571618446</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.39596439710341</v>
+        <v>29.94914570418482</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>63.83735443230437</v>
+        <v>29.94914572932393</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>68.56363629078338</v>
+        <v>29.94914573669586</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.96913101597424</v>
+        <v>29.94914569628157</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.83516253223506</v>
+        <v>29.94914573221851</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>70.42248414774453</v>
+        <v>29.94914574284282</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2.996017426472658</v>
+        <v>29.94914550753793</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.87738052293526</v>
+        <v>29.94914552999607</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>18.8902916335739</v>
+        <v>29.94914553696505</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.7358245358669251</v>
+        <v>29.94914551411707</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>12.39333388997439</v>
+        <v>29.94914553894548</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.8304311149984</v>
+        <v>29.94914554664998</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.10478322759403</v>
+        <v>29.94914552055648</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17.58258506970369</v>
+        <v>29.94914554228605</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.46283622242931</v>
+        <v>29.94914554902895</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>14.1635626978132</v>
+        <v>29.94914553930715</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.4264229479827</v>
+        <v>29.94914556327641</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.78459453913336</v>
+        <v>29.94914557072707</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6.953390401300471</v>
+        <v>29.9491455366406</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.06282001582071</v>
+        <v>29.94914557081676</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.17880072492734</v>
+        <v>29.94914558142196</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>7.154760432029608</v>
+        <v>29.94914555451162</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.29174220633281</v>
+        <v>29.94914557868598</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.56281586488534</v>
+        <v>29.94914558599427</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.692458503438996</v>
+        <v>29.94914556286572</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.20980271738115</v>
+        <v>29.94914558959147</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>21.93222891995896</v>
+        <v>29.94914559767109</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.34165973842716</v>
+        <v>29.94914557080146</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.03354958893792</v>
+        <v>29.94914559419157</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>6.853270954639736</v>
+        <v>29.94914552971604</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.02204367964173</v>
+        <v>29.94914555262693</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.07540804470371</v>
+        <v>29.94914555950352</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3.820012166309315</v>
+        <v>29.9491455379956</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.26681379923008</v>
+        <v>29.94914556332454</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.74862350169964</v>
+        <v>29.9491455709269</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.79910233359828</v>
+        <v>29.94914554482149</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.55466828361203</v>
+        <v>29.94914556698913</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.47402574479286</v>
+        <v>29.94914557364264</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>19.10959939122552</v>
+        <v>29.94914556374878</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.64917275251985</v>
+        <v>29.94914558812243</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.05659620868569</v>
+        <v>29.94914559549297</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>11.69463671124861</v>
+        <v>29.94914556023493</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.24203094917705</v>
+        <v>29.94914559510007</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.41964605554278</v>
+        <v>29.94914560556469</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11.57242538377419</v>
+        <v>29.94914557859741</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.01488326980246</v>
+        <v>29.94914560325205</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.3313943495534</v>
+        <v>29.94914561046291</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>7.857011101282247</v>
+        <v>29.949145588768</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.71196787475733</v>
+        <v>29.94914561602472</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.48461789159338</v>
+        <v>29.94914562399663</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.66150144371975</v>
+        <v>29.94914559711824</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.64861939840975</v>
+        <v>29.94914562097304</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.369492760816019</v>
+        <v>29.94914553415159</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.51130643823635</v>
+        <v>29.94914555697189</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.52943812428991</v>
+        <v>29.9491455637867</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.549585533129751</v>
+        <v>29.94914554273653</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.96660745633105</v>
+        <v>29.94914556796531</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.40946351663384</v>
+        <v>29.94914557549937</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>13.53279010719764</v>
+        <v>29.94914554956564</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.26233788978495</v>
+        <v>29.94914557164562</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.14763115020353</v>
+        <v>29.94914557823935</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>21.81779392871143</v>
+        <v>29.9491455683659</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>33.33191685677406</v>
+        <v>29.94914559262632</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.70242094717648</v>
+        <v>29.94914559993544</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.36303001069741</v>
+        <v>29.94914556471814</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.86931708602028</v>
+        <v>29.94914559944542</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.99323796074152</v>
+        <v>29.94914560981601</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.24856893621964</v>
+        <v>29.94914558297371</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.65867859221423</v>
+        <v>29.94914560752981</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.93863070674672</v>
+        <v>29.94914561467575</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>10.76576326725164</v>
+        <v>29.94914559345448</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.58498046954704</v>
+        <v>29.94914562060227</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.31721176428895</v>
+        <v>29.9491456285024</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>18.57270409029196</v>
+        <v>29.9491456018004</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.52859119845029</v>
+        <v>29.94914562555988</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>14.92067184510533</v>
+        <v>29.94914551251086</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.16890437308015</v>
+        <v>29.94914553525291</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.19109490648938</v>
+        <v>29.94914554225807</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>11.63343395246468</v>
+        <v>29.94914551968896</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.16797764455498</v>
+        <v>29.94914554483124</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.61536672534846</v>
+        <v>29.94914555257574</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.85215206685919</v>
+        <v>29.94914552625952</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.68437263143107</v>
+        <v>29.94914554826379</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.57362438295899</v>
+        <v>29.9491455550417</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.06412746829431</v>
+        <v>29.94914554517093</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>38.67395078050878</v>
+        <v>29.94914556941814</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>43.04354563942064</v>
+        <v>29.94914557691387</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>19.28971163851696</v>
+        <v>29.94914554224474</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.95830636769085</v>
+        <v>29.94914557685295</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.08845426534673</v>
+        <v>29.9491455875132</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>19.87815416705329</v>
+        <v>29.94914556029938</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>33.41775463053776</v>
+        <v>29.94914558477791</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.7022559885959</v>
+        <v>29.94914559212394</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>15.88982541698824</v>
+        <v>29.94914556929639</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.85206994419936</v>
+        <v>29.94914559635842</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>35.58937618046808</v>
+        <v>29.94914560447977</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>23.94741651485639</v>
+        <v>29.94914557738001</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.02828373257575</v>
+        <v>29.94914560106443</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.16316228905157</v>
+        <v>29.94914560126277</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.41193339943439</v>
+        <v>29.94914559019896</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.07050729797223</v>
+        <v>29.94914561601399</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.73704509002402</v>
+        <v>29.94914562380808</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.94280830026908</v>
+        <v>29.94914558565742</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.96518939689655</v>
+        <v>29.94914562244527</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.47501295495181</v>
+        <v>29.94914563356681</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.48340239642596</v>
+        <v>29.94914561028958</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.64315234315573</v>
+        <v>29.9491456337775</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.91656262986479</v>
+        <v>29.94914564073427</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>12.69526864734874</v>
+        <v>29.94914562044176</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.23786574334042</v>
+        <v>29.94914564640864</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.96310427268238</v>
+        <v>29.94914565409963</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.67359325221902</v>
+        <v>29.94914562903085</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.38795745430715</v>
+        <v>29.94914565175679</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.51991980160698</v>
+        <v>29.94914565848788</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.56307610333006</v>
+        <v>29.94914564741832</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.39432919913202</v>
+        <v>29.94914567242552</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.09363384223749</v>
+        <v>29.94914567976537</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23.34341912007316</v>
+        <v>29.94914564123026</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.39952880568568</v>
+        <v>29.94914567697352</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>49.91335030112808</v>
+        <v>29.94914568756014</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.82215684957032</v>
+        <v>29.94914562794998</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>24.99171813913922</v>
+        <v>29.94914561666935</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>37.94386872548144</v>
+        <v>29.94914564290724</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>42.66582651814153</v>
+        <v>29.94914565061547</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.30168379159296</v>
+        <v>29.94914561121325</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>37.78955542188413</v>
+        <v>29.94914564873197</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>44.36861455093302</v>
+        <v>29.94914565970527</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.35336058785279</v>
+        <v>29.94914563402672</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.80729060531053</v>
+        <v>29.94914565797678</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.12548804809774</v>
+        <v>29.94914566483266</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.32605760115908</v>
+        <v>29.94914564594919</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.19377883035024</v>
+        <v>29.94914567242697</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>37.96852904312967</v>
+        <v>29.94914568000642</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.46968576960043</v>
+        <v>29.94914565493951</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>39.46835606508214</v>
+        <v>29.9491456781126</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.64362195223509</v>
+        <v>29.94914568474606</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>36.61584440674942</v>
+        <v>29.94914567345601</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>49.72830800225119</v>
+        <v>29.9491456988675</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>54.48212359656576</v>
+        <v>29.94914570611692</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.16827614534633</v>
+        <v>29.94914566637727</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>49.67265969875004</v>
+        <v>29.94914570282378</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.25472962874164</v>
+        <v>29.94914571325687</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.66678440040985</v>
+        <v>29.94914563247399</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.87250455514098</v>
+        <v>29.94914562121337</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.79259667016849</v>
+        <v>29.94914564732746</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>45.47598865185707</v>
+        <v>29.94914565497093</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.13918187838344</v>
+        <v>29.94914561562651</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>40.57773578252449</v>
+        <v>29.9491456529953</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>47.10107727387019</v>
+        <v>29.94914566386978</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.92782044175938</v>
+        <v>29.94914563795933</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.34652336316646</v>
+        <v>29.94914566181532</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.62783102449112</v>
+        <v>29.9491456686069</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.11640012846838</v>
+        <v>29.94914565016891</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.94519853878541</v>
+        <v>29.9491456765427</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.67916364339003</v>
+        <v>29.94914568405106</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.25954967497077</v>
+        <v>29.94914565914885</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>42.22420202166269</v>
+        <v>29.94914568223092</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>46.3638043332073</v>
+        <v>29.94914568880217</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>39.36804488215213</v>
+        <v>29.94914567753073</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.44419110854393</v>
+        <v>29.94914570282375</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>57.15848809140738</v>
+        <v>29.94914571000936</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.8783608390484</v>
+        <v>29.94914567033582</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>52.32904675639752</v>
+        <v>29.94914570663918</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>58.85489243240676</v>
+        <v>29.94914571697441</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>41.17090688247225</v>
+        <v>29.94914560817215</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.19851817840055</v>
+        <v>29.94914559693345</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.24265660142277</v>
+        <v>29.9491456230451</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.92506332460675</v>
+        <v>29.94914563088567</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.13918435072851</v>
+        <v>29.94914559210157</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>45.77519376757306</v>
+        <v>29.94914562935231</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>52.30551618386535</v>
+        <v>29.9491456405313</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>27.73928894898435</v>
+        <v>29.94914561645392</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>41.29532512360162</v>
+        <v>29.94914564023966</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.58287422219009</v>
+        <v>29.94914564722863</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.43031422349668</v>
+        <v>29.949145627249</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.41081436977384</v>
+        <v>29.94914565354513</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.15172429417811</v>
+        <v>29.94914566127173</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.81193214890617</v>
+        <v>29.94914563598906</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.90916133949518</v>
+        <v>29.94914565900316</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>51.05482417468554</v>
+        <v>29.94914566576541</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.89663910907603</v>
+        <v>29.94914565451901</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>57.10951597287115</v>
+        <v>29.94914567981552</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.82468293547645</v>
+        <v>29.94914568719499</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>36.11652207795645</v>
+        <v>29.94914564803185</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.7765934168344</v>
+        <v>29.94914568422832</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>63.31200853738383</v>
+        <v>29.94914569486394</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.15983711620401</v>
+        <v>29.94914555492208</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.47364995652742</v>
+        <v>29.94914557766966</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.56890670063947</v>
+        <v>29.94914558471907</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.529750402432146</v>
+        <v>29.94914556407689</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.13673259484368</v>
+        <v>29.94914558922529</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.66482179745361</v>
+        <v>29.9491455970187</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>14.62213710828401</v>
+        <v>29.94914557125474</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.51780713017965</v>
+        <v>29.94914559326437</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.47764789982863</v>
+        <v>29.94914560008509</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.22079633132095</v>
+        <v>29.94914558942785</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.99358697822294</v>
+        <v>29.94914561370505</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.41365007249821</v>
+        <v>29.94914562124185</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.04079961774126</v>
+        <v>29.94914558518549</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.80901978683202</v>
+        <v>29.94914561980213</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>41.05031821364258</v>
+        <v>29.94914563052972</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.26936780938088</v>
+        <v>29.94914560267586</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.82679025345443</v>
+        <v>29.94914562713322</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.15372310415523</v>
+        <v>29.94914563449973</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.93703337415445</v>
+        <v>29.94914561352441</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.91893375014133</v>
+        <v>29.94914564056305</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.70305610467623</v>
+        <v>29.94914564870703</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>18.81198464830252</v>
+        <v>29.9491456221859</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.91015081714426</v>
+        <v>29.94914564584984</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>14.3791995244694</v>
+        <v>29.94914557804909</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.98493569937588</v>
+        <v>29.94914560125356</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.11945627543328</v>
+        <v>29.94914560819816</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.47998998802757</v>
+        <v>29.94914558894174</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.40960614545836</v>
+        <v>29.94914561459524</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.98108991029469</v>
+        <v>29.94914562227279</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>19.72102045707866</v>
+        <v>29.94914559652984</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.89881709807695</v>
+        <v>29.94914561898152</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.8966130314766</v>
+        <v>29.94914562570084</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.58119015417837</v>
+        <v>29.94914561488194</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.63515000167306</v>
+        <v>29.94914563956611</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.10258585455839</v>
+        <v>29.949145647008</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>21.18800758120601</v>
+        <v>29.94914560976515</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>40.40107534389611</v>
+        <v>29.94914564507705</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>46.70218714941666</v>
+        <v>29.94914565564515</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.06152765287451</v>
+        <v>29.94914562772646</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.92863195062921</v>
+        <v>29.94914565266761</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>37.299371143806</v>
+        <v>29.94914565992305</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>16.50916862698562</v>
+        <v>29.94914564042513</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.83333220312547</v>
+        <v>29.9491456679986</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.6658719892155</v>
+        <v>29.94914567601979</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.54991339655181</v>
+        <v>29.94914564952544</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>37.94737260660256</v>
+        <v>29.94914567365747</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.90823392210096</v>
+        <v>29.94914558224627</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.48491475504811</v>
+        <v>29.94914560535903</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.58281045636666</v>
+        <v>29.94914561223956</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.21697565611932</v>
+        <v>29.94914559343239</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.11449665171412</v>
+        <v>29.94914561898452</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.64548816959884</v>
+        <v>29.94914562659122</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.46306577526486</v>
+        <v>29.94914560102146</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.6128187937507</v>
+        <v>29.94914562338442</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.5752049750774</v>
+        <v>29.94914563004173</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.2968347902684</v>
+        <v>29.94914561925256</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.32264118410183</v>
+        <v>29.94914564382223</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.7516481126709</v>
+        <v>29.94914565120005</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.86257468106617</v>
+        <v>29.94914561401075</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>43.03134306241441</v>
+        <v>29.94914564918311</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>49.27663989211354</v>
+        <v>29.94914565965369</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.75538986121864</v>
+        <v>29.94914563186466</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>35.58812897638938</v>
+        <v>29.94914565670615</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.92093434840812</v>
+        <v>29.94914566389436</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.43027938313202</v>
+        <v>29.94914564486187</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.71647570342071</v>
+        <v>29.94914567232517</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.50707739615022</v>
+        <v>29.94914568027203</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.47481982338177</v>
+        <v>29.94914565395591</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.83909937293259</v>
+        <v>29.94914567799151</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.3806621088204</v>
+        <v>29.94914556043974</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.07333191639415</v>
+        <v>29.94914558347509</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.17573642852061</v>
+        <v>29.94914559055904</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.20828802414325</v>
+        <v>29.94914557022439</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.2339027652805</v>
+        <v>29.94914559569093</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>38.76992832949416</v>
+        <v>29.94914560352253</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.69312815759658</v>
+        <v>29.94914557754392</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>39.95480061182157</v>
+        <v>29.94914559983198</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>43.92158170467245</v>
+        <v>29.94914560668612</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.46398807773033</v>
+        <v>29.94914559587531</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>48.59673574722416</v>
+        <v>29.94914562043433</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>53.02500978545798</v>
+        <v>29.94914562801443</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.71833384434206</v>
+        <v>29.94914559135631</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>48.06398415994476</v>
+        <v>29.94914562641085</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>54.31620018461162</v>
+        <v>29.94914563719101</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.3000727552801</v>
+        <v>29.94914560902275</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>41.27201406342198</v>
+        <v>29.94914563378802</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>45.60908994587357</v>
+        <v>29.94914564119023</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.45619827532072</v>
+        <v>29.94914562054395</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>39.89615023476343</v>
+        <v>29.94914564792298</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>44.69152209038084</v>
+        <v>29.94914565610643</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>32.75388107876871</v>
+        <v>29.94914562936399</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>46.25252447730976</v>
+        <v>29.94914565332584</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.09372991282714</v>
+        <v>29.94914565297737</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.42239962362533</v>
+        <v>29.94914564096133</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.5826651611085</v>
+        <v>29.94914566708287</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>46.28348383910287</v>
+        <v>29.9491456749393</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.99544623847733</v>
+        <v>29.94914563481933</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>41.65827442495851</v>
+        <v>29.94914567203787</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>48.25304416365899</v>
+        <v>29.94914568324801</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.36934003591418</v>
+        <v>29.94914565418529</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.90218334754452</v>
+        <v>29.94914567790851</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.22208006857526</v>
+        <v>29.94914568491288</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>19.76232969438989</v>
+        <v>29.94914566650705</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.71716843539809</v>
+        <v>29.94914569273405</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.49374204163041</v>
+        <v>29.94914570047767</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.90761714583717</v>
+        <v>29.94914567572619</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.98251463475612</v>
+        <v>29.9491456986798</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.15937586603351</v>
+        <v>29.94914570545694</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>38.33818875328251</v>
+        <v>29.94914569348168</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>51.62713269839453</v>
+        <v>29.94914571874737</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>56.35329747212685</v>
+        <v>29.9491457261369</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>31.20782377471951</v>
+        <v>29.94914568583279</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>51.83218711900257</v>
+        <v>29.94914572193411</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>58.41668199691949</v>
+        <v>29.94914573259316</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.17329818193066</v>
+        <v>29.94914568067753</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.43027026584578</v>
+        <v>29.94914566845565</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>47.88826392696058</v>
+        <v>29.9491456950018</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>52.64212483888967</v>
+        <v>29.9491457027561</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.77416669016378</v>
+        <v>29.94914566137214</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>47.90889891938799</v>
+        <v>29.94914569932687</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>54.57040977799689</v>
+        <v>29.94914571036799</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.57247722429783</v>
+        <v>29.94914567879025</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.40339176913881</v>
+        <v>29.94914570297813</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.76645810285425</v>
+        <v>29.94914570986919</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.75614028203174</v>
+        <v>29.94914569290889</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>41.04040621190786</v>
+        <v>29.9491457196496</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>45.86470023469022</v>
+        <v>29.94914572726795</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.07637874548446</v>
+        <v>29.94914570255068</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>47.43934336627078</v>
+        <v>29.94914572595387</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>51.65794304883849</v>
+        <v>29.94914573262137</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>44.7735408184533</v>
+        <v>29.94914572043489</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>58.34752199245112</v>
+        <v>29.9491457461057</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>63.12589926321223</v>
+        <v>29.9491457533903</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>37.40846562845357</v>
+        <v>29.94914571187192</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>58.48703615129709</v>
+        <v>29.94914574868035</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>65.13730587415162</v>
+        <v>29.94914575916697</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>45.02835200245713</v>
+        <v>29.94914568494653</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>37.32396641047061</v>
+        <v>29.94914567275421</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>50.74725846562383</v>
+        <v>29.94914569917517</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>55.46105066907307</v>
+        <v>29.94914570686206</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.62319190506026</v>
+        <v>29.94914566554909</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>50.70553549502723</v>
+        <v>29.94914570335216</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.30923429250569</v>
+        <v>29.94914571429098</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.16436980209573</v>
+        <v>29.94914568250478</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.95835152367133</v>
+        <v>29.9491457065975</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>47.28321122999957</v>
+        <v>29.9491457134222</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.55753263575792</v>
+        <v>29.94914569690017</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.80099199718499</v>
+        <v>29.94914572353566</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>48.58304562155334</v>
+        <v>29.94914573108066</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.87882715882466</v>
+        <v>29.9491457065299</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>50.20612575337505</v>
+        <v>29.94914572984102</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>54.38778925070692</v>
+        <v>29.94914573644432</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>47.53725065528086</v>
+        <v>29.94914572428554</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>61.07254677597462</v>
+        <v>29.94914574983646</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>65.80997997213804</v>
+        <v>29.94914575705494</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>40.12856396238816</v>
+        <v>29.94914571561496</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>61.15084043813874</v>
+        <v>29.94914575227858</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>67.74287974966107</v>
+        <v>29.94914576266422</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>50.4459387193567</v>
+        <v>29.94914566048791</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.56431328262916</v>
+        <v>29.94914564829233</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>56.12312091949811</v>
+        <v>29.94914567471416</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>60.83535889996352</v>
+        <v>29.94914568261486</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>34.54568169338701</v>
+        <v>29.94914564184291</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>55.84026981530597</v>
+        <v>29.94914567952999</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>62.45053076334348</v>
+        <v>29.94914569079447</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.87937297358958</v>
+        <v>29.94914566085698</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>47.81945570319159</v>
+        <v>29.94914568488095</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>52.15001272410877</v>
+        <v>29.94914569191553</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.76600425994939</v>
+        <v>29.94914567384709</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.17085113022777</v>
+        <v>29.94914570040658</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>52.95925103888064</v>
+        <v>29.9491457081836</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>41.32664973917032</v>
+        <v>29.94914568322647</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>54.79499729609518</v>
+        <v>29.94914570647107</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>58.98219598304301</v>
+        <v>29.94914571327744</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>51.9702734848628</v>
+        <v>29.94914570112089</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>65.65292109191408</v>
+        <v>29.94914572667868</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>70.39045380730023</v>
+        <v>29.94914573410572</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>44.2793533595529</v>
+        <v>29.94914569315754</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>65.52436583433345</v>
+        <v>29.94914572971653</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>72.12515106291747</v>
+        <v>29.94914574042155</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.617141879859584</v>
+        <v>29.94914549872565</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.690475416760149</v>
+        <v>29.94914552029767</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.59184133629513</v>
+        <v>29.94914552703792</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-5.772069524758308</v>
+        <v>29.94914550429967</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.723121796289671</v>
+        <v>29.94914552814843</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.03682770270871</v>
+        <v>29.94914553560005</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.6973531752515072</v>
+        <v>29.94914551032291</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.62089110389292</v>
+        <v>29.9491455311951</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.39323440861514</v>
+        <v>29.94914553771669</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.43172896091918</v>
+        <v>29.94914552864992</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.12607245253744</v>
+        <v>29.94914555168682</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.37577864931452</v>
+        <v>29.94914555889801</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>1.662788078202176</v>
+        <v>29.94914552658196</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.89776705396267</v>
+        <v>29.94914555940964</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.84370926457002</v>
+        <v>29.94914556966676</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.188332780846114</v>
+        <v>29.94914554375686</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.70577265617649</v>
+        <v>29.94914556697925</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>18.86935469863747</v>
+        <v>29.94914557405652</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2.6826036005708</v>
+        <v>29.94914555105824</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.15014360393809</v>
+        <v>29.94914557673156</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.75366613748321</v>
+        <v>29.94914558455577</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.559202698890587</v>
+        <v>29.94914555851831</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.65254695922879</v>
+        <v>29.94914558098734</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.030990406113993</v>
+        <v>29.94914552010747</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>13.6144848117091</v>
+        <v>29.94914554211937</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>17.5563499290244</v>
+        <v>29.94914554877152</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1.457473464660048</v>
+        <v>29.94914552732333</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>11.34261557107962</v>
+        <v>29.9491455516584</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>15.7010848886939</v>
+        <v>29.94914555901262</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.144159851646265</v>
+        <v>29.94914553372011</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.33431648513252</v>
+        <v>29.94914555501791</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>20.14581044024539</v>
+        <v>29.94914556145426</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>13.12033211510403</v>
+        <v>29.94914555221701</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.08014611016358</v>
+        <v>29.94914557564717</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.37916836339981</v>
+        <v>29.9491455827824</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>6.156346215321214</v>
+        <v>29.94914554933137</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.81171633795666</v>
+        <v>29.94914558282846</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.81936383979121</v>
+        <v>29.94914559295151</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>6.375552961062223</v>
+        <v>29.94914556699482</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>19.18632427932783</v>
+        <v>29.94914559068407</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.39544479380182</v>
+        <v>29.94914559766856</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.217602135316081</v>
+        <v>29.94914557605133</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.37453988437596</v>
+        <v>29.94914560224079</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.0283980741076</v>
+        <v>29.94914560996243</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.607819027927922</v>
+        <v>29.94914558391255</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.98465433405452</v>
+        <v>29.9491456068333</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.499405453207636</v>
+        <v>29.94914552449232</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.05791893111223</v>
+        <v>29.94914554641757</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.96574002437577</v>
+        <v>29.94914555301041</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.220911557268927</v>
+        <v>29.94914553200887</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>13.9934062088178</v>
+        <v>29.94914555624814</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>18.31423633888761</v>
+        <v>29.9491455635368</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.827418571241218</v>
+        <v>29.9491455384106</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>18.9934671336215</v>
+        <v>29.94914555962458</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>22.77204640994663</v>
+        <v>29.94914556600353</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>15.7789525164284</v>
+        <v>29.94914555678314</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.71531484472545</v>
+        <v>29.94914558010477</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.97860766962351</v>
+        <v>29.94914558718102</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.775089464242374</v>
+        <v>29.94914555376461</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.39236801519808</v>
+        <v>29.94914558712984</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>32.34813289399123</v>
+        <v>29.94914559716264</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.999725085137758</v>
+        <v>29.94914557132675</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.78034270578855</v>
+        <v>29.94914559492176</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.95408152482459</v>
+        <v>29.9491456018439</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.070382830831878</v>
+        <v>29.94914558068861</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.19400566516224</v>
+        <v>29.94914560677388</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.80874694984153</v>
+        <v>29.94914561442659</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>12.46393087186963</v>
+        <v>29.94914558854769</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.81165476280876</v>
+        <v>29.94914561137725</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>9.829479833478638</v>
+        <v>29.94914550343838</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.4888412793885</v>
+        <v>29.9491455252838</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.39933971399776</v>
+        <v>29.9491455320597</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.09751324805891</v>
+        <v>29.94914550958487</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>18.98137866571586</v>
+        <v>29.94914553373589</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.30521142680292</v>
+        <v>29.94914554122692</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>12.92963879328957</v>
+        <v>29.94914551573394</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.19298493348533</v>
+        <v>29.94914553687067</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.97418474955711</v>
+        <v>29.94914554342675</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>20.80939709862568</v>
+        <v>29.94914553421773</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.83577210836862</v>
+        <v>29.94914555752235</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.09696532787024</v>
+        <v>29.94914556477783</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.49704317539404</v>
+        <v>29.94914553190318</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.26813610961476</v>
+        <v>29.94914556514693</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>37.2280190039174</v>
+        <v>29.9491455754583</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.40373668449611</v>
+        <v>29.94914554925679</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.30753612316688</v>
+        <v>29.94914557277214</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>31.48450629138202</v>
+        <v>29.94914557988674</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>9.983860944726349</v>
+        <v>29.94914555717335</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.24354414061986</v>
+        <v>29.94914558317055</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.86190041851804</v>
+        <v>29.94914559103604</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>17.61752909435872</v>
+        <v>29.94914556477552</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.08414422551352</v>
+        <v>29.94914558752801</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>20.678183087857</v>
+        <v>29.94914558783501</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>13.26396362361361</v>
+        <v>29.94914557747022</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.30298692075457</v>
+        <v>29.94914560228249</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.86514455884312</v>
+        <v>29.9491456098351</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>6.246137881859774</v>
+        <v>29.94914557359787</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.32430827824401</v>
+        <v>29.94914560893706</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.67025904565363</v>
+        <v>29.94914561970704</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>10.66319646984821</v>
+        <v>29.94914559871486</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.21277349025524</v>
+        <v>29.94914562128372</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.38586052771874</v>
+        <v>29.9491456280258</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>7.423304221058409</v>
+        <v>29.94914560783721</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>21.29165354736412</v>
+        <v>29.94914563278802</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.90590807650841</v>
+        <v>29.94914564024167</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.99635693347992</v>
+        <v>29.94914561594685</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.1212084620558</v>
+        <v>29.94914563778354</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.15612661738447</v>
+        <v>29.9491456443069</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.49391762275415</v>
+        <v>29.9491456339147</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.71047002115503</v>
+        <v>29.94914565795642</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.31136577377916</v>
+        <v>29.94914566507353</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>17.702227883513</v>
+        <v>29.94914562840978</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.82845788048769</v>
+        <v>29.94914566275443</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.1893134608611</v>
+        <v>29.94914567301434</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.05431284993083</v>
+        <v>29.9491456135912</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>18.56220150979462</v>
+        <v>29.94914560301252</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>30.88298544188401</v>
+        <v>29.94914562823634</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.50068150056259</v>
+        <v>29.94914563570763</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>11.3336187957943</v>
+        <v>29.94914559825691</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.85877384058047</v>
+        <v>29.94914563430655</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.27411494983927</v>
+        <v>29.94914564493535</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>15.29657209430983</v>
+        <v>29.9491456216334</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.12858661110295</v>
+        <v>29.94914564465154</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.3466939048126</v>
+        <v>29.94914565129744</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>12.78348372997463</v>
+        <v>29.94914563246714</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.96397977895629</v>
+        <v>29.94914565791466</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.62800362758739</v>
+        <v>29.94914566526197</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>20.5149104083791</v>
+        <v>29.94914564096561</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.9127197637273</v>
+        <v>29.94914566323702</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.99116654169394</v>
+        <v>29.94914566966732</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.25890906451086</v>
+        <v>29.9491456590581</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>42.74531282555684</v>
+        <v>29.94914568349332</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>47.40097580377089</v>
+        <v>29.9491456905246</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.24932393905636</v>
+        <v>29.94914565269226</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.80593507162583</v>
+        <v>29.94914568772062</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.23539501874647</v>
+        <v>29.94914569783416</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.84710744283776</v>
+        <v>29.94914561807483</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>21.38897481444913</v>
+        <v>29.94914560751262</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.67995631999214</v>
+        <v>29.94914563261779</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.26026932584113</v>
+        <v>29.94914564002688</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.11711849558961</v>
+        <v>29.94914560262705</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.59630105318951</v>
+        <v>29.94914563853328</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.95771891120555</v>
+        <v>29.94914564906719</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.8210553384408</v>
+        <v>29.94914562553146</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.62005692371479</v>
+        <v>29.94914564845963</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.80240865678428</v>
+        <v>29.94914565504375</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>15.52037939224719</v>
+        <v>29.94914563664784</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.66439906001279</v>
+        <v>29.94914566199588</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.28889202869185</v>
+        <v>29.9491456692749</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.25228445999554</v>
+        <v>29.94914564513826</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.61821447065169</v>
+        <v>29.94914566732261</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>39.66209441340088</v>
+        <v>29.94914567369314</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.9599850881058</v>
+        <v>29.94914566309928</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>45.4123890085218</v>
+        <v>29.94914568742096</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>50.0296862617942</v>
+        <v>29.94914569439092</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.90831202489241</v>
+        <v>29.94914565661775</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>45.41460034790167</v>
+        <v>29.94914569150918</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>51.78956495482477</v>
+        <v>29.94914570152871</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.12275061378514</v>
+        <v>29.9491455944118</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.49430796274385</v>
+        <v>29.94914558387968</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.90272245898833</v>
+        <v>29.94914560897772</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>43.48093731922884</v>
+        <v>29.94914561657615</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>18.90793548736712</v>
+        <v>29.94914557973105</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>38.57495590673454</v>
+        <v>29.94914561551605</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>44.94134258674117</v>
+        <v>29.94914562634285</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>22.44023509651756</v>
+        <v>29.9491456045914</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.37023910919596</v>
+        <v>29.94914562744719</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.55744604520821</v>
+        <v>29.94914563422129</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.65683104587512</v>
+        <v>29.94914561432984</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.94556100061327</v>
+        <v>29.94914563959787</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.57546332003388</v>
+        <v>29.94914564708692</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.61732825583422</v>
+        <v>29.94914562258485</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.10972433459958</v>
+        <v>29.94914564469917</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.15832274441482</v>
+        <v>29.94914565125351</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>37.30112051808467</v>
+        <v>29.94914564069204</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>49.88344664304072</v>
+        <v>29.94914566501258</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>54.50039679925732</v>
+        <v>29.94914567216892</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.96926937284836</v>
+        <v>29.94914563490182</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>49.67529334103953</v>
+        <v>29.94914566968312</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>56.05771076087312</v>
+        <v>29.94914567999176</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>8.282589819924961</v>
+        <v>29.94914556392192</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.353328124704</v>
+        <v>29.94914558586468</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>24.4311417498981</v>
+        <v>29.94914559273434</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.638237636057081</v>
+        <v>29.94914557320693</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.97654587882655</v>
+        <v>29.94914559746556</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.48532048579725</v>
+        <v>29.94914560506026</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.6133167492105</v>
+        <v>29.94914558021777</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.27409664916067</v>
+        <v>29.94914560144868</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.2170594489893</v>
+        <v>29.94914560809547</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.26282824840568</v>
+        <v>29.94914559777024</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>32.80188349608387</v>
+        <v>29.94914562120451</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>37.1998956719906</v>
+        <v>29.94914562855096</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>14.39835738072617</v>
+        <v>29.94914559355049</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.79601526264118</v>
+        <v>29.94914562694236</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>39.01065543862252</v>
+        <v>29.94914563739641</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>11.77007158330746</v>
+        <v>29.94914560989879</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.05995755208614</v>
+        <v>29.94914563348597</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.36557174625344</v>
+        <v>29.94914564066058</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>8.417332694770707</v>
+        <v>29.94914562079468</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.10351539699198</v>
+        <v>29.94914564687128</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.86404219815535</v>
+        <v>29.94914565480312</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.14760221058366</v>
+        <v>29.94914562922711</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.98722887534785</v>
+        <v>29.9491456520491</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>12.44841099247034</v>
+        <v>29.94914558649229</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.80572038452723</v>
+        <v>29.94914560887693</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.92306542345959</v>
+        <v>29.94914561564409</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.52739084682366</v>
+        <v>29.94914559746687</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.18241697987023</v>
+        <v>29.94914562221402</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.73488199428376</v>
+        <v>29.9491456296954</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.65012187258417</v>
+        <v>29.94914560488148</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.58785470658466</v>
+        <v>29.94914562653993</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.5690314452334</v>
+        <v>29.94914563308756</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.56048757059149</v>
+        <v>29.94914562261086</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.37549458161304</v>
+        <v>29.94914564643861</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>42.82100966748512</v>
+        <v>29.94914565369178</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.48740689475329</v>
+        <v>29.94914561754148</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.32175577240611</v>
+        <v>29.94914565160578</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.59661670378608</v>
+        <v>29.94914566190386</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.49919570610005</v>
+        <v>29.94914563434169</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.09303729910639</v>
+        <v>29.94914565839665</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.4426917584471</v>
+        <v>29.94914566546258</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.918179037226</v>
+        <v>29.94914564703517</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.94029554182705</v>
+        <v>29.94914567362893</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.74949840682517</v>
+        <v>29.94914568144061</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>21.81302445787127</v>
+        <v>29.94914565589941</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>34.94640899065794</v>
+        <v>29.94914567917401</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.96553534879937</v>
+        <v>29.94914559052358</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.29462443894167</v>
+        <v>29.94914561282002</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.37568379332576</v>
+        <v>29.94914561952479</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.25052822648189</v>
+        <v>29.94914560177963</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.87438214265812</v>
+        <v>29.94914562642927</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.3867302224635</v>
+        <v>29.94914563384167</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>20.37891723559392</v>
+        <v>29.94914560919579</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.28941301804934</v>
+        <v>29.9491456307689</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.2355081346485</v>
+        <v>29.94914563725616</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.26285159667278</v>
+        <v>29.94914562680883</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>41.05051349179617</v>
+        <v>29.94914565052629</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>45.45793941234935</v>
+        <v>29.94914565771699</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.14778785003701</v>
+        <v>29.94914562161902</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.93911070779592</v>
+        <v>29.94914565554911</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>47.15867426616121</v>
+        <v>29.94914566575224</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.18327952470852</v>
+        <v>29.9491456383209</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.74371751254387</v>
+        <v>29.94914566228003</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.05578978454906</v>
+        <v>29.94914566928052</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.8274287818499</v>
+        <v>29.94914565130096</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.81264092643434</v>
+        <v>29.94914567778876</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.58029472560789</v>
+        <v>29.9491456855281</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>24.72683695416354</v>
+        <v>29.94914566015995</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.8279707819007</v>
+        <v>29.9491456833418</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>20.34052019874345</v>
+        <v>29.94914556934467</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.78419510748597</v>
+        <v>29.94914559156551</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.86950726893033</v>
+        <v>29.94914559846893</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.14866024155859</v>
+        <v>29.94914557924373</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.89905810762525</v>
+        <v>29.9491456038098</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.41615671257983</v>
+        <v>29.94914561144182</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.51262453115045</v>
+        <v>29.94914558639378</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.53368639840154</v>
+        <v>29.94914560789375</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.4839287048507</v>
+        <v>29.94914561457322</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.33767747934224</v>
+        <v>29.94914560409996</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.23102732810773</v>
+        <v>29.94914562780669</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.63743612676434</v>
+        <v>29.94914563519544</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.91869355774229</v>
+        <v>29.94914559961113</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.88475645705992</v>
+        <v>29.94914563342618</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>52.11084831531818</v>
+        <v>29.94914564393162</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>24.61676183325363</v>
+        <v>29.94914561612698</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>38.31471975559283</v>
+        <v>29.94914564001163</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>42.63068486046537</v>
+        <v>29.94914564722111</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>21.74649754085541</v>
+        <v>29.94914562767808</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.88360705739463</v>
+        <v>29.94914565408356</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>41.65561302136275</v>
+        <v>29.94914566205393</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.89526205784678</v>
+        <v>29.94914563626609</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>43.12913667657494</v>
+        <v>29.9491456593759</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.15018749006204</v>
+        <v>29.94914565899096</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.79562578138311</v>
+        <v>29.94914564734357</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.69651082020813</v>
+        <v>29.94914567255374</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>43.37119387115712</v>
+        <v>29.94914568020735</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>18.70688999712615</v>
+        <v>29.94914564128879</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>38.96187642938693</v>
+        <v>29.9491456771831</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>45.52408405718354</v>
+        <v>29.94914568810123</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.76509487342798</v>
+        <v>29.94914565906431</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.02951267109897</v>
+        <v>29.94914568193997</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.32800893386549</v>
+        <v>29.94914568875875</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.14439674675967</v>
+        <v>29.94914567133043</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.80253561407262</v>
+        <v>29.94914569662043</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.5554238717821</v>
+        <v>29.94914570415887</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.13264230941442</v>
+        <v>29.94914568028682</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.94813368717365</v>
+        <v>29.94914570242037</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.1042978813206</v>
+        <v>29.94914570901794</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>35.58387280542262</v>
+        <v>29.94914569740106</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.61097537301363</v>
+        <v>29.94914572178127</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>53.31197662054367</v>
+        <v>29.94914572897636</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.78442338990668</v>
+        <v>29.94914568989841</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>48.99960791740313</v>
+        <v>29.94914572470995</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>55.55141339718523</v>
+        <v>29.94914573508658</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.15194031887144</v>
+        <v>29.94914568601071</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.73013878260108</v>
+        <v>29.94914567416905</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>44.92317630397642</v>
+        <v>29.94914569978959</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>49.65098972228508</v>
+        <v>29.94914570734276</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.41706365111744</v>
+        <v>29.94914566719949</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>45.13522767361951</v>
+        <v>29.94914570380566</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>51.76453250968596</v>
+        <v>29.94914571455839</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.898943968708</v>
+        <v>29.94914568306212</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>37.45593253422985</v>
+        <v>29.94914570638696</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.79786427776421</v>
+        <v>29.949145713095</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.06014624277929</v>
+        <v>29.94914569707257</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.04163260293856</v>
+        <v>29.94914572285915</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.84253524154902</v>
+        <v>29.94914573027517</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.2219886514393</v>
+        <v>29.9491457064445</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.32023033520237</v>
+        <v>29.94914572901265</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>48.51839009019074</v>
+        <v>29.94914573550308</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>41.9387600770512</v>
+        <v>29.94914572368594</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>55.24558877955033</v>
+        <v>29.94914574845751</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>59.99893131702524</v>
+        <v>29.94914575554967</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.90937883682646</v>
+        <v>29.94914571529538</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.57038831273762</v>
+        <v>29.94914575079045</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>62.18837347462495</v>
+        <v>29.94914576099856</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.99716927638406</v>
+        <v>29.94914569011519</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.6127688947737</v>
+        <v>29.94914567830284</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>47.77205468627801</v>
+        <v>29.94914570380277</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>52.46015305099151</v>
+        <v>29.94914571129026</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.25402343024908</v>
+        <v>29.9491456712161</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>47.92126503757014</v>
+        <v>29.94914570767641</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>54.49329434773906</v>
+        <v>29.94914571832957</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.48164112301055</v>
+        <v>29.94914568663563</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.00272288416548</v>
+        <v>29.94914570986893</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.30678159313248</v>
+        <v>29.94914571651243</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.85016426728695</v>
+        <v>29.94914570091178</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.79197822082666</v>
+        <v>29.94914572659715</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>45.5510095433434</v>
+        <v>29.94914573394182</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.01389663865584</v>
+        <v>29.9491457102729</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>47.07746363745018</v>
+        <v>29.94914573275248</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>51.23900984625638</v>
+        <v>29.94914573918046</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>44.69200540480529</v>
+        <v>29.94914572739085</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>57.96118195474222</v>
+        <v>29.94914575204687</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>62.67391102547752</v>
+        <v>29.94914575907465</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>37.61801432521927</v>
+        <v>29.94914571889658</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>58.22429408304376</v>
+        <v>29.94914575425236</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>64.78455792958883</v>
+        <v>29.94914576436225</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.3021314911043</v>
+        <v>29.94914566635149</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.74624710808079</v>
+        <v>29.94914565453091</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>53.03947513897596</v>
+        <v>29.9491456800313</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>57.72561967232109</v>
+        <v>29.94914568772812</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>32.07767682505836</v>
+        <v>29.94914564817723</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>52.95459576620267</v>
+        <v>29.94914568452423</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>59.5326108590917</v>
+        <v>29.94914569549541</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.09296535912559</v>
+        <v>29.94914566560048</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>44.75824394494637</v>
+        <v>29.94914568876662</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>49.0675075286467</v>
+        <v>29.94914569561491</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.96007628959769</v>
+        <v>29.94914567851692</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>45.06117402721031</v>
+        <v>29.94914570412805</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.82600677387302</v>
+        <v>29.94914571169912</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>38.35913476110629</v>
+        <v>29.94914568763027</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.56191282040722</v>
+        <v>29.94914571004488</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>55.72851801664588</v>
+        <v>29.949145716671</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>49.02573949110045</v>
+        <v>29.94914570487907</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>62.44039480585104</v>
+        <v>29.94914572954145</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>67.15273571311961</v>
+        <v>29.94914573677316</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>41.67720890543747</v>
+        <v>29.94914569707078</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>62.50331959279677</v>
+        <v>29.94914573232436</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>69.07157802760962</v>
+        <v>29.94914574274589</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.177</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.242</v>
+        <v>18.566</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.329</v>
+        <v>21.785</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.508</v>
+        <v>15.605</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.94914556057259</v>
+        <v>-2.262221872503837</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.94914558293872</v>
+        <v>24.29051827022214</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.94914558993869</v>
+        <v>29.16098036292337</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.94914556990122</v>
+        <v>1.414694299088332</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.94914559462791</v>
+        <v>17.96123574146785</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.94914560236667</v>
+        <v>24.15708882457787</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.94914557702865</v>
+        <v>13.27601346614681</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.9491455986692</v>
+        <v>27.11289603299327</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.94914560544208</v>
+        <v>31.61202867929713</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.94914559493854</v>
+        <v>29.14230548278662</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.94914561882419</v>
+        <v>35.75754681508384</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.94914562630952</v>
+        <v>39.4142586695056</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.9491455906934</v>
+        <v>9.07910388927217</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.94914562472955</v>
+        <v>29.52826870972768</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.94914563538191</v>
+        <v>36.13120034227029</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.94914560735458</v>
+        <v>-2.246925485610749</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.94914563139747</v>
+        <v>27.35834013258735</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.94914563871043</v>
+        <v>32.96332186554999</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.94914561832829</v>
+        <v>-3.1269897384343</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.9491456449087</v>
+        <v>16.47989579130203</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.94914565299348</v>
+        <v>23.36937697306716</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.94914562690621</v>
+        <v>10.71513087891953</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.94914565016912</v>
+        <v>26.99703012105543</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.94914558354088</v>
+        <v>6.812146859521842</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.94914560635811</v>
+        <v>35.27694591129982</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.94914561325423</v>
+        <v>39.90301564073149</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.9491455945919</v>
+        <v>13.0989641857429</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.94914561981729</v>
+        <v>31.41777036567632</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.94914562744124</v>
+        <v>37.30804890469889</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.9491456021292</v>
+        <v>25.79375667391416</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.94914562420621</v>
+        <v>41.1796647665078</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.94914563087861</v>
+        <v>45.41395828192924</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.94914562021863</v>
+        <v>44.80845657614564</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.94914564450595</v>
+        <v>51.83911892825127</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.94914565189692</v>
+        <v>55.51727605759868</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.9491456151078</v>
+        <v>23.25342101859328</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.94914564983041</v>
+        <v>45.76820249341506</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.94914566032473</v>
+        <v>52.03979132132662</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.94914563222953</v>
+        <v>9.182813653551531</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.94914565675007</v>
+        <v>40.86411944984941</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.94914566395295</v>
+        <v>46.25080414298504</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.949145645036</v>
+        <v>11.33891022184012</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.94914567214446</v>
+        <v>32.87660408083872</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.94914568010755</v>
+        <v>39.48848219703706</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.94914565405232</v>
+        <v>26.14521562555733</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.94914567777737</v>
+        <v>44.11182761565684</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.94914558766354</v>
+        <v>6.898056119560714</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.94914561039089</v>
+        <v>35.63505880495293</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.94914561722353</v>
+        <v>40.34106619126028</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.94914559900254</v>
+        <v>13.97678141925612</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.94914562412857</v>
+        <v>32.63739322574837</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.94914563168235</v>
+        <v>38.5926360693993</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.9491456065413</v>
+        <v>26.62873371452075</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.94914562853135</v>
+        <v>42.31480606901509</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.94914563514233</v>
+        <v>46.61127243945677</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.94914562451187</v>
+        <v>46.26522772462035</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.94914564868676</v>
+        <v>53.36049714316806</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.9491456560142</v>
+        <v>57.12476172130125</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.94914561927791</v>
+        <v>24.44030522554708</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.94914565386375</v>
+        <v>47.34175448338679</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.94914566426147</v>
+        <v>53.69284120899667</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.94914563629902</v>
+        <v>9.813121343628938</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.94914566072189</v>
+        <v>41.78592705891971</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.9491456678582</v>
+        <v>47.26960969596935</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.94914564939868</v>
+        <v>12.89206946310152</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.94914567639918</v>
+        <v>34.79117271143224</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.94914568428867</v>
+        <v>41.48637093501847</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.94914565840949</v>
+        <v>27.65952845839724</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.94914568204005</v>
+        <v>45.94462879714291</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.94914556607679</v>
+        <v>1.802053944832981</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.94914558872637</v>
+        <v>29.54805015606656</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.94914559576091</v>
+        <v>34.7527046969968</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.94914557603034</v>
+        <v>7.725453769640485</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.94914560107039</v>
+        <v>25.43736311402884</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.94914560884737</v>
+        <v>31.96733311476658</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.94914558329913</v>
+        <v>19.6776195102338</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.94914560521394</v>
+        <v>34.52465802064886</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.94914561202027</v>
+        <v>39.31022367970002</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.94914560136568</v>
+        <v>37.09699707049542</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.949145625529</v>
+        <v>44.0218669508747</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.94914563305758</v>
+        <v>47.97095059005855</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.94914559684681</v>
+        <v>15.97402399345553</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.94914563131431</v>
+        <v>37.77372651178372</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.94914564201927</v>
+        <v>44.7614057685709</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.94914561367809</v>
+        <v>3.449505072305762</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.94914563802422</v>
+        <v>34.3651033109776</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.9491456453729</v>
+        <v>40.35264904854302</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.94914562531872</v>
+        <v>5.051350626090318</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.94914565223438</v>
+        <v>25.94160797203983</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.94914566035866</v>
+        <v>33.21737094376741</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.94914563405468</v>
+        <v>19.03184488020151</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.94914565761099</v>
+        <v>36.42568729873631</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.94914565724483</v>
+        <v>32.00986825075485</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.94914564539473</v>
+        <v>29.91018934404157</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.94914567109102</v>
+        <v>38.31160111776542</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.94914567889158</v>
+        <v>42.61462021161611</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.94914563928246</v>
+        <v>8.888934351103462</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.94914567587024</v>
+        <v>33.03957107212841</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.94914568699889</v>
+        <v>40.25391344761805</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.94914565762251</v>
+        <v>1.012160616227387</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.94914568094157</v>
+        <v>31.97538946706738</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.94914568789283</v>
+        <v>38.41516748529845</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.94914567000604</v>
+        <v>0.5105886466045391</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.94914569578622</v>
+        <v>21.84091706595987</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.94914570347113</v>
+        <v>29.66068129667882</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.94914567912032</v>
+        <v>16.46867558621976</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.94914570168288</v>
+        <v>34.2172969810664</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.94914570840864</v>
+        <v>40.00275576467387</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.94914569658765</v>
+        <v>40.84628759665276</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.94914572143912</v>
+        <v>49.69432788064397</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.94914572877353</v>
+        <v>54.83135241482078</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.94914568899544</v>
+        <v>17.67276301152776</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.94914572448172</v>
+        <v>43.820766680952</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.94914573505995</v>
+        <v>52.05370489015406</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.94914568474658</v>
+        <v>48.88323406992308</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.94914567269623</v>
+        <v>48.67844454727948</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.94914569881156</v>
+        <v>57.51653547487502</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.94914570651056</v>
+        <v>61.8466252167629</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.94914566565178</v>
+        <v>26.14718343201252</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.94914570296643</v>
+        <v>52.55170451686961</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.94914571392757</v>
+        <v>59.4612254766618</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.94914568204462</v>
+        <v>14.69665328267079</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.94914570582238</v>
+        <v>47.74871184889946</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.94914571266143</v>
+        <v>53.91235141349586</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.94914569620671</v>
+        <v>17.40466316679245</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.94914572249401</v>
+        <v>40.67257214976257</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.94914573005486</v>
+        <v>48.16103655030916</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.94914570574292</v>
+        <v>34.40967729798066</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.9491457287493</v>
+        <v>53.85140786406922</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.94914573536649</v>
+        <v>59.35077818454464</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.94914572333919</v>
+        <v>62.17556398360245</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.94914574859039</v>
+        <v>71.43778147335766</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.94914575582063</v>
+        <v>76.5772060027553</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.94914571484212</v>
+        <v>37.47669913904982</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.94914575102646</v>
+        <v>65.88644726244306</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.94914576143392</v>
+        <v>73.75469323981872</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.94914568894486</v>
+        <v>50.79409268402425</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.94914567692392</v>
+        <v>50.7929943561593</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.94914570291631</v>
+        <v>59.68919240527814</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.94914571054851</v>
+        <v>64.11473350047177</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.94914566975959</v>
+        <v>28.01821410781718</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.94914570692562</v>
+        <v>54.83160303579463</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.94914571778546</v>
+        <v>61.84097437545866</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.9491456856992</v>
+        <v>16.35573433089851</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.9491457093837</v>
+        <v>49.7033124929393</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.94914571615708</v>
+        <v>55.93614794263117</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.94914570013313</v>
+        <v>20.04491852396599</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.94914572631732</v>
+        <v>43.675997446966</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.94914573380557</v>
+        <v>51.21857340795393</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.94914570965815</v>
+        <v>37.03121210774415</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.9491457325743</v>
+        <v>56.79352341120182</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.94914573912794</v>
+        <v>62.34681897054862</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.94914572712824</v>
+        <v>65.3824715180514</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.94914575226169</v>
+        <v>74.69696306219535</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.94914575942645</v>
+        <v>79.91729338515216</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.94914571852508</v>
+        <v>40.43172038578197</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.94914575456748</v>
+        <v>69.25151315182751</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.94914576487501</v>
+        <v>77.18817031582091</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.94914566472128</v>
+        <v>41.76770913724831</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.94914565269443</v>
+        <v>39.75453209752984</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.94914567868653</v>
+        <v>48.4908905676249</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.9491456865313</v>
+        <v>53.11779227578421</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.94914564627804</v>
+        <v>17.71196920003822</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.94914568332729</v>
+        <v>43.35059904499512</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.94914569451031</v>
+        <v>51.00420615050645</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.94914566426097</v>
+        <v>9.52369923735354</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.94914568787616</v>
+        <v>41.8382897965283</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.9491456948577</v>
+        <v>48.61527311679964</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.94914567730654</v>
+        <v>11.65030808910491</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.94914570341412</v>
+        <v>34.30832952019478</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.94914571113251</v>
+        <v>42.46578720872301</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.94914568658032</v>
+        <v>27.84872450611469</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.94914570942942</v>
+        <v>46.74838260938485</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.94914571618446</v>
+        <v>52.82346385743158</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.94914570418482</v>
+        <v>53.82774137060716</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.94914572932393</v>
+        <v>63.00908249347398</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.94914573669586</v>
+        <v>68.45664815654447</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.94914569628157</v>
+        <v>29.54164090254535</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.94914573221851</v>
+        <v>57.22649374494474</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.94914574284282</v>
+        <v>65.84800091552003</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.94914550753793</v>
+        <v>-6.816604754545473</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.94914552999607</v>
+        <v>19.10086275729955</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.94914553696505</v>
+        <v>23.66462365813296</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.94914551411707</v>
+        <v>-4.285711206188203</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.94914553894548</v>
+        <v>11.66432066436648</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.94914554664998</v>
+        <v>17.55876558644995</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.94914552055648</v>
+        <v>7.644771521869249</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.94914554228605</v>
+        <v>20.95069117588541</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.94914554902895</v>
+        <v>25.1843793346354</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.94914553930715</v>
+        <v>21.85446991273469</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.94914556327641</v>
+        <v>28.42661659272343</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.94914557072707</v>
+        <v>31.89610003428231</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.9491455366406</v>
+        <v>1.3900594750816</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.94914557081676</v>
+        <v>21.19509323146501</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.94914558142196</v>
+        <v>27.39631628646322</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.94914555451162</v>
+        <v>-5.744182475973691</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.94914557868598</v>
+        <v>23.382417226762</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.94914558599427</v>
+        <v>28.70155604661576</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.94914556286572</v>
+        <v>-7.461496166144926</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.94914558959147</v>
+        <v>11.66573489305328</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.94914559767109</v>
+        <v>18.30194816397744</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.94914557080146</v>
+        <v>6.681912825359341</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.94914559419157</v>
+        <v>22.55020846160202</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.94914552971604</v>
+        <v>0.9025657085147927</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.94914555262693</v>
+        <v>28.72014280003258</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.94914555950352</v>
+        <v>33.06845162202671</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.9491455379956</v>
+        <v>5.933188544661391</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.94914556332454</v>
+        <v>23.63737251728323</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.9491455709269</v>
+        <v>29.26226942859326</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.94914554482149</v>
+        <v>18.66449970271139</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.94914556698913</v>
+        <v>33.50714784324799</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.94914557364264</v>
+        <v>37.50502221648938</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.94914556374878</v>
+        <v>35.94325161056126</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.94914558812243</v>
+        <v>42.93140165578458</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.94914559549297</v>
+        <v>46.4362900000466</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.94914556023493</v>
+        <v>13.99004342272864</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.94914559510007</v>
+        <v>35.84482494411112</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.94914560556469</v>
+        <v>41.75128016226164</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.94914557859741</v>
+        <v>4.21569735556929</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.94914560325205</v>
+        <v>35.40200851023435</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.94914561046291</v>
+        <v>40.54085136446925</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.949145588768</v>
+        <v>5.422102268947047</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.94914561602472</v>
+        <v>26.45598557239976</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.94914562399663</v>
+        <v>32.86236708463943</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.94914559711824</v>
+        <v>20.50122554831686</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.94914562097304</v>
+        <v>38.03718464094463</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.94914553415159</v>
+        <v>0.6872189920626717</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.94914555697189</v>
+        <v>28.77926472071105</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.9491455637867</v>
+        <v>33.20758598982778</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.94914554273653</v>
+        <v>6.485944297859721</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.94914556796531</v>
+        <v>24.5326031301715</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.94914557549937</v>
+        <v>30.22350351008827</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.94914554956564</v>
+        <v>19.16337010049146</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.94914557164562</v>
+        <v>34.30759993496491</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.94914557823935</v>
+        <v>38.3681272519988</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.9491455683659</v>
+        <v>37.06339688718924</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.94914559262632</v>
+        <v>44.11521895234681</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.94914559993544</v>
+        <v>47.70622748674162</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.94914556471814</v>
+        <v>14.84737607252398</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.94914559944542</v>
+        <v>37.09034384571484</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.94914560981601</v>
+        <v>43.07726106822192</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.94914558297371</v>
+        <v>4.479928799124803</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.94914560752981</v>
+        <v>35.95693541145368</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.94914561467575</v>
+        <v>41.19426637154776</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.94914559345448</v>
+        <v>6.582404920856931</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.94914562060227</v>
+        <v>27.9754047199448</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.9491456285024</v>
+        <v>34.46775952851628</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.9491456018004</v>
+        <v>21.6091763607946</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.94914562555988</v>
+        <v>39.46246419860473</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.94914551251086</v>
+        <v>-3.605145023230698</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.94914553525291</v>
+        <v>23.49609533848147</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.94914554225807</v>
+        <v>28.38503063771636</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.94914551968896</v>
+        <v>1.089346934307816</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.94914554483124</v>
+        <v>18.19375741906106</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.94914555257574</v>
+        <v>24.41498149133944</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.94914552625952</v>
+        <v>13.08529846987053</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.94914554826379</v>
+        <v>27.39300595865498</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.9491455550417</v>
+        <v>31.90580833498669</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.94914554517093</v>
+        <v>28.82953851308756</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.94914556941814</v>
+        <v>35.70915133338436</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.94914557691387</v>
+        <v>39.46306578683931</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.94914554224474</v>
+        <v>7.320025899252542</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.94914557685295</v>
+        <v>28.46514054478996</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.9491455875132</v>
+        <v>35.04116064291015</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.94914556029938</v>
+        <v>-1.046902734218861</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.94914558477791</v>
+        <v>29.37660870370409</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.94914559212394</v>
+        <v>35.07190407097598</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.94914556929639</v>
+        <v>-0.3674097906914184</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.94914559635842</v>
+        <v>20.02784651713388</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.94914560447977</v>
+        <v>27.0464092686921</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.94914557738001</v>
+        <v>13.88622359350557</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.94914560106443</v>
+        <v>30.85463449732477</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.94914560126277</v>
+        <v>27.3329766652706</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.94914559019896</v>
+        <v>24.34741662749388</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.94914561601399</v>
+        <v>32.79080092940593</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.94914562380808</v>
+        <v>36.95024736250085</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.94914558565742</v>
+        <v>2.857383729756485</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.94914562244527</v>
+        <v>26.50903344676409</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.94914563356681</v>
+        <v>33.37570326536587</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.94914561028958</v>
+        <v>-0.7952714420741742</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.9491456337775</v>
+        <v>29.88088367371065</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.94914564073427</v>
+        <v>36.08594494003329</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.94914562044176</v>
+        <v>-2.250860696608797</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.94914564640864</v>
+        <v>18.78513949727795</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.94914565409963</v>
+        <v>26.40271879914368</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.94914562903085</v>
+        <v>14.21209202471256</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.94914565175679</v>
+        <v>31.7083487863632</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.94914565848788</v>
+        <v>37.30822350858256</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.94914564741832</v>
+        <v>37.08070304153821</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.94914567242552</v>
+        <v>46.04104330774193</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.94914567976537</v>
+        <v>51.04087826767464</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.94914564123026</v>
+        <v>13.31734307831497</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.94914567697352</v>
+        <v>39.18457547129736</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.94914568756014</v>
+        <v>47.12965261330433</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.94914562794998</v>
+        <v>42.6172051797209</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.94914561666935</v>
+        <v>41.44137080177408</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.94914564290724</v>
+        <v>50.3200636314896</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.94914565061547</v>
+        <v>54.5270777193934</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.94914561121325</v>
+        <v>18.45054700853738</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.94914564873197</v>
+        <v>44.33372380400046</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.94914565970527</v>
+        <v>50.94451932528066</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.94914563402672</v>
+        <v>11.58245248667255</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.94914565797678</v>
+        <v>44.33114353320791</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.94914566483266</v>
+        <v>50.29790604619352</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.94914564594919</v>
+        <v>13.23016656350802</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.94914567242697</v>
+        <v>36.18028481292204</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.94914568000642</v>
+        <v>43.51329261194394</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.94914565493951</v>
+        <v>30.71806577645281</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.9491456781126</v>
+        <v>49.89062053424106</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.94914568474606</v>
+        <v>55.24228582890036</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.94914567345601</v>
+        <v>56.90952395646835</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.9491456988675</v>
+        <v>66.28502621838882</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.94914570611692</v>
+        <v>71.30764926344388</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.94914566637727</v>
+        <v>31.62782044746114</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.94914570282378</v>
+        <v>59.73510362451746</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.94914571325687</v>
+        <v>67.363564866595</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.94914563247399</v>
+        <v>44.12234430507883</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.94914562121337</v>
+        <v>43.15264660219856</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.94914564732746</v>
+        <v>52.08741780119802</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.94914565497093</v>
+        <v>56.39025958475201</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.94914561562651</v>
+        <v>19.92627719783906</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.9491456529953</v>
+        <v>46.2164512430356</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.94914566386978</v>
+        <v>52.92976975124344</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.94914563795933</v>
+        <v>12.89633783855361</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.94914566181532</v>
+        <v>45.93953734762045</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.9491456686069</v>
+        <v>51.97671110067633</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.94914565016891</v>
+        <v>15.50297747461446</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.9491456765427</v>
+        <v>38.81381713936057</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.94914568405106</v>
+        <v>46.20331269478077</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.94914565914885</v>
+        <v>32.95833340712476</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.94914568223092</v>
+        <v>52.45011456377119</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.94914568880217</v>
+        <v>57.85725642415881</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.94914567753073</v>
+        <v>59.73833740175152</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.94914570282375</v>
+        <v>69.16436360193025</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.94914571000936</v>
+        <v>74.2681035185596</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.94914567033582</v>
+        <v>34.21281097872442</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.94914570663918</v>
+        <v>62.72806785046068</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.94914571697441</v>
+        <v>70.42722924199363</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.94914560817215</v>
+        <v>35.9618543491635</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.94914559693345</v>
+        <v>33.07033186437156</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.9491456230451</v>
+        <v>41.84612430894815</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.94914563088567</v>
+        <v>46.32268926368808</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.94914559210157</v>
+        <v>10.57327331058056</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.94914562935231</v>
+        <v>35.69783138071223</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.9491456405313</v>
+        <v>42.99738141529326</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.94914561645392</v>
+        <v>6.786493901562398</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.94914564023966</v>
+        <v>38.80492665376556</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.94914564722863</v>
+        <v>45.34077832291793</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.949145627249</v>
+        <v>7.881437794120025</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.94914565354513</v>
+        <v>30.23424444303058</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.94914566127173</v>
+        <v>38.18560149803532</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.94914563598906</v>
+        <v>24.55990517899534</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.94914565900316</v>
+        <v>43.19916707429901</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.94914566576541</v>
+        <v>49.08397149957592</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.94914565451901</v>
+        <v>49.02180952567566</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.94914567981552</v>
+        <v>58.31499945822748</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.94914568719499</v>
+        <v>63.61810035617944</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.94914564803185</v>
+        <v>24.15818941736059</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.94914568422832</v>
+        <v>51.55224465600732</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.94914569486394</v>
+        <v>59.87945884050266</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.94914555492208</v>
+        <v>-1.098016784726312</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.94914557766966</v>
+        <v>25.99507217480912</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.94914558471907</v>
+        <v>30.64228904080028</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.94914556407689</v>
+        <v>2.64522064874928</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.94914558922529</v>
+        <v>19.69116679168011</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.9491455970187</v>
+        <v>25.65922453970401</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.94914557125474</v>
+        <v>14.79915312804267</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.94914559326437</v>
+        <v>29.06478287324068</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.94914560008509</v>
+        <v>33.36246004052195</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.94914558942785</v>
+        <v>30.67870219561528</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.94914561370505</v>
+        <v>37.55284733943903</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.94914562124185</v>
+        <v>41.06164924718257</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.94914558518549</v>
+        <v>10.07102468714518</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.94914561980213</v>
+        <v>31.09456705798513</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.94914563052972</v>
+        <v>37.43570312979928</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.94914560267586</v>
+        <v>0.6152083654548299</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.94914562713322</v>
+        <v>30.84113646952522</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.94914563449973</v>
+        <v>36.12727377998139</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.94914561352441</v>
+        <v>-0.1879268332962738</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.94914564056305</v>
+        <v>19.98863594782106</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.94914564870703</v>
+        <v>26.54980661171127</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.9491456221859</v>
+        <v>14.08212922539416</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.94914564584984</v>
+        <v>30.85628978743987</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.94914557804909</v>
+        <v>7.871406459198724</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.94914560125356</v>
+        <v>36.89458935463817</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.94914560819816</v>
+        <v>41.28626907470177</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.94914558894174</v>
+        <v>14.20702023695878</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.94914561459524</v>
+        <v>33.0412560963462</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.94914562227279</v>
+        <v>38.69260326698153</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.94914559652984</v>
+        <v>27.20193142491788</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.94914561898152</v>
+        <v>43.03160894908955</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.94914562570084</v>
+        <v>47.05428737750416</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.94914561488194</v>
+        <v>46.23608428800401</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.94914563956611</v>
+        <v>53.53170420668886</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.949145647008</v>
+        <v>57.05469281460263</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.94914560976515</v>
+        <v>24.12255740282551</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.94914564507705</v>
+        <v>47.23091174494031</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.94914565564515</v>
+        <v>53.22784940626294</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.94914562772646</v>
+        <v>11.88919719539983</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.94914565266761</v>
+        <v>44.20780398684555</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.94914565992305</v>
+        <v>49.2637009560617</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.94914564042513</v>
+        <v>14.10345956991762</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.9491456679986</v>
+        <v>36.22489508423435</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.94914567601979</v>
+        <v>42.49694871617363</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.94914564952544</v>
+        <v>29.34637272532323</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.94914567365747</v>
+        <v>47.81874442143469</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.94914558224627</v>
+        <v>7.958048862813339</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.94914560535903</v>
+        <v>37.25502164454349</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.94914561223956</v>
+        <v>41.72302019202395</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.94914559343239</v>
+        <v>15.08649719403919</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.94914561898452</v>
+        <v>34.26420960206229</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.94914562659122</v>
+        <v>39.97698141421173</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.94914560102146</v>
+        <v>28.03767503665946</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.94914562338442</v>
+        <v>44.16919631987178</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.94914563004173</v>
+        <v>48.25091134695577</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.94914561925256</v>
+        <v>47.69792892972681</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.94914564382223</v>
+        <v>55.05840427904123</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.94914565120005</v>
+        <v>58.6651984492494</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.94914561401075</v>
+        <v>25.31441853850514</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.94914564918311</v>
+        <v>48.81157641907897</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.94914565965369</v>
+        <v>54.88389051400778</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.94914563186466</v>
+        <v>12.49140266165283</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.94914565670615</v>
+        <v>45.10256218348201</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.94914566389436</v>
+        <v>50.25179532514087</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.94914564486187</v>
+        <v>15.62898022837133</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.94914567232517</v>
+        <v>38.11299077977901</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.94914568027203</v>
+        <v>44.46483974058958</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.94914565395591</v>
+        <v>30.83116887027617</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.94914567799151</v>
+        <v>49.62328900628126</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.94914556043974</v>
+        <v>3.03968321858725</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.94914558347509</v>
+        <v>31.33912384251082</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.94914559055904</v>
+        <v>36.30857364834844</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.94914557022439</v>
+        <v>9.032632973346253</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.94914559569093</v>
+        <v>27.25643355262523</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.94914560352253</v>
+        <v>33.54698110496891</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.94914557754392</v>
+        <v>21.28155574680629</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.94914559983198</v>
+        <v>36.56856327022524</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.94914560668612</v>
+        <v>41.1423545896175</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.94914559587531</v>
+        <v>38.72371529304887</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.94914562043433</v>
+        <v>45.91243089808581</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.94914562801443</v>
+        <v>49.70638237120377</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.94914559135631</v>
+        <v>17.04536414574886</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.94914562641085</v>
+        <v>39.43438807833913</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.94914563719101</v>
+        <v>46.14665682911284</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.94914560902275</v>
+        <v>6.3444712911745</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.94914563378802</v>
+        <v>37.89422878812582</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.94914564119023</v>
+        <v>43.54868838043575</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.94914562054395</v>
+        <v>8.025301315132335</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.94914564792298</v>
+        <v>29.49793314138216</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.94914565610643</v>
+        <v>36.43152881464574</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.94914562936399</v>
+        <v>22.43769172041303</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.94914565332584</v>
+        <v>40.33533291149346</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.94914565297737</v>
+        <v>35.57905472010088</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.94914564096133</v>
+        <v>33.41687955064994</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.94914566708287</v>
+        <v>42.10309574215734</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.9491456749393</v>
+        <v>46.21633860692764</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.94914563481933</v>
+        <v>11.84127520763084</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.94914567203787</v>
+        <v>36.65213518990541</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.94914568324801</v>
+        <v>43.4914981947122</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.94914565418529</v>
+        <v>3.59972324066144</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.94914567790851</v>
+        <v>35.16180610122756</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.94914568491288</v>
+        <v>41.31416313958373</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.94914566650705</v>
+        <v>3.124681679495737</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.94914569273405</v>
+        <v>24.99979339960914</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.94914570047767</v>
+        <v>32.52506550105176</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.94914567572619</v>
+        <v>19.52136145375785</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.9491456986798</v>
+        <v>37.74212039407603</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.94914570545694</v>
+        <v>43.26491177533941</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.94914569348168</v>
+        <v>44.05298588443986</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.94914571874737</v>
+        <v>53.17573294336466</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.9491457261369</v>
+        <v>58.12717432897055</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.94914568583279</v>
+        <v>20.3332037860945</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.94914572193411</v>
+        <v>47.11779354483329</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.94914573259316</v>
+        <v>55.01205787361925</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.94914568067753</v>
+        <v>52.28949983428164</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.94914566845565</v>
+        <v>52.03035931367503</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.9491456950018</v>
+        <v>61.1575144868503</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.9491457027561</v>
+        <v>65.29098223202269</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.94914566137214</v>
+        <v>28.9340960063706</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.94914569932687</v>
+        <v>56.01596703914263</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.94914571036799</v>
+        <v>62.53713424282678</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.94914567879025</v>
+        <v>17.13545473435814</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.94914570297813</v>
+        <v>50.80191010172264</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.94914570986919</v>
+        <v>56.66535520667364</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.94914569290889</v>
+        <v>19.85286376568089</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.9491457196496</v>
+        <v>43.67860641198379</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.94914572726795</v>
+        <v>50.86004290018417</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.94914570255068</v>
+        <v>37.30466417278733</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.94914572595387</v>
+        <v>57.23111767372704</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.94914573262137</v>
+        <v>62.45637196172547</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.94914572043489</v>
+        <v>65.2357611524364</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.9491457461057</v>
+        <v>74.77689319590598</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.9491457533903</v>
+        <v>79.7235329413155</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.94914571187192</v>
+        <v>39.98129900946847</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.94914574868035</v>
+        <v>69.04363902657184</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.94914575916697</v>
+        <v>76.55870983387476</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.94914568494653</v>
+        <v>54.16897788220648</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.94914567275421</v>
+        <v>54.11954302308103</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.94914569917517</v>
+        <v>63.30463191477578</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.94914570686206</v>
+        <v>67.53137352552436</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.94914566554909</v>
+        <v>30.78041075558493</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.94914570335216</v>
+        <v>58.27268791746688</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.94914571429098</v>
+        <v>64.88959848898783</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.94914568250478</v>
+        <v>18.76671410283438</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.9491457065975</v>
+        <v>52.72960825918777</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.9491457134222</v>
+        <v>58.65813244474355</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.94914569690017</v>
+        <v>22.46583341181672</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.94914572353566</v>
+        <v>46.655774519578</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.94914573108066</v>
+        <v>53.88730922165588</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.9491457065299</v>
+        <v>39.89705590751108</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.94914572984102</v>
+        <v>60.14524073977774</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.94914573644432</v>
+        <v>65.4208790854461</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.94914572428554</v>
+        <v>68.41772315241758</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.94914574983646</v>
+        <v>78.01093166138648</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.94914575705494</v>
+        <v>83.03599825598799</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.94914571561496</v>
+        <v>42.91254982144677</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.94914575227858</v>
+        <v>72.38630714570535</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.94914576266422</v>
+        <v>79.96512105517481</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.94914566048791</v>
+        <v>45.37496023382417</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.94914564829233</v>
+        <v>43.31123242307672</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.94914567471416</v>
+        <v>52.33691924797186</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.94914568261486</v>
+        <v>56.76631451168795</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.94914564184291</v>
+        <v>20.70523236615921</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.94914567952999</v>
+        <v>47.01940048472245</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.94914569079447</v>
+        <v>54.28186058318614</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.94914566085698</v>
+        <v>12.13898657939103</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.94914568488095</v>
+        <v>45.06566475418089</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.94914569191553</v>
+        <v>51.54039461534242</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.94914567384709</v>
+        <v>14.29313857467516</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.94914570040658</v>
+        <v>37.50829250941609</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.9491457081836</v>
+        <v>45.35681769485769</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.94914568322647</v>
+        <v>30.93466894500672</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.94914570647107</v>
+        <v>50.31778482606428</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.94914571327744</v>
+        <v>56.11734312687226</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.94914570112089</v>
+        <v>57.07957698462852</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.94914572667868</v>
+        <v>66.54023658786588</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.94914573410572</v>
+        <v>71.79357716011941</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.94914569315754</v>
+        <v>32.23949932663731</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.94914572971653</v>
+        <v>60.57592142374219</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.94914574042155</v>
+        <v>68.84186436209598</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.94914549872565</v>
+        <v>-9.728282929461933</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.94914552029767</v>
+        <v>14.33882190139872</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.94914552703792</v>
+        <v>18.75153655088826</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.94914550429967</v>
+        <v>-8.180512226339893</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.94914552814843</v>
+        <v>6.305178397249509</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.94914553560005</v>
+        <v>11.96873121414476</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.94914551032291</v>
+        <v>2.932854878885991</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.9491455311951</v>
+        <v>14.9717555343871</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.94914553771669</v>
+        <v>19.04106366041534</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.94914552864992</v>
+        <v>15.83341784122525</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.94914555168682</v>
+        <v>21.77214197331715</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.94914555889801</v>
+        <v>25.17482116099391</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.94914552658196</v>
+        <v>-3.175197780867833</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.94914555940964</v>
+        <v>14.90783644842045</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.94914556966676</v>
+        <v>20.85746085591472</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.94914554375686</v>
+        <v>-8.402434300567215</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.94914556697925</v>
+        <v>18.70684540062754</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.94914557405652</v>
+        <v>23.94239834239584</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.94914555105824</v>
+        <v>-10.77523408762146</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.94914557673156</v>
+        <v>6.716766550242014</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.94914558455577</v>
+        <v>13.20976373270788</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.94914555851831</v>
+        <v>2.420779651820169</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.94914558098734</v>
+        <v>16.88293083372265</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.94914552010747</v>
+        <v>-2.37114598349801</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.94914554211937</v>
+        <v>23.51964771936759</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.94914554877152</v>
+        <v>27.73437705751291</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.94914552732333</v>
+        <v>1.5827357848096</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.9491455516584</v>
+        <v>17.75224542568832</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.94914555901262</v>
+        <v>23.16567297756752</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.94914553372011</v>
+        <v>13.46099816566178</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.94914555501791</v>
+        <v>26.97469369770278</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.94914556145426</v>
+        <v>30.82498064243724</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.94914555221701</v>
+        <v>29.29078918871758</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.94914557564717</v>
+        <v>35.62856390574316</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.9491455827824</v>
+        <v>39.07360003978084</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.94914554933137</v>
+        <v>8.855224779191383</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.94914558282846</v>
+        <v>28.90585592655659</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.94914559295151</v>
+        <v>34.58201315177416</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.94914556699482</v>
+        <v>1.159287448906817</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.94914559068407</v>
+        <v>30.24648903739376</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.94914559766856</v>
+        <v>35.32082711135316</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.94914557605133</v>
+        <v>1.603611572171918</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.94914560224079</v>
+        <v>20.92767562183347</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.94914560996243</v>
+        <v>27.2119939812279</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.94914558391255</v>
+        <v>15.69793715755567</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.9491456068333</v>
+        <v>31.76185125112961</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.94914552449232</v>
+        <v>-2.605677562417835</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.94914554641757</v>
+        <v>23.55190207926108</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.94914555301041</v>
+        <v>27.8484942421344</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.94914553200887</v>
+        <v>2.089472172838747</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.94914555624814</v>
+        <v>18.59111573161823</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.9491455635368</v>
+        <v>24.07311844550298</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.9491455384106</v>
+        <v>13.91644499358823</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.94914555962458</v>
+        <v>27.72256189877282</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.94914556600353</v>
+        <v>31.63753734866672</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.94914555678314</v>
+        <v>30.34176502815352</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.94914558010477</v>
+        <v>36.74217741728336</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.94914558718102</v>
+        <v>40.27298178804944</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.94914555376461</v>
+        <v>9.65309658618663</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.94914558712984</v>
+        <v>30.08001354627203</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.94914559716264</v>
+        <v>35.83933940543075</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.94914557132675</v>
+        <v>1.381550063857976</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.94914559492176</v>
+        <v>30.75100872426968</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.9491456018439</v>
+        <v>35.92546699662549</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.94914558068861</v>
+        <v>2.68899047295265</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.94914560677388</v>
+        <v>22.36120474189462</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.94914561442659</v>
+        <v>28.73377899297624</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.94914558854769</v>
+        <v>16.73431244931218</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.94914561137725</v>
+        <v>33.10571948233385</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.94914550343838</v>
+        <v>-6.77506654218298</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.9491455252838</v>
+        <v>18.42135779395723</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.9491455320597</v>
+        <v>23.15873112366886</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.94914550958487</v>
+        <v>-3.152821526593268</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.94914553373589</v>
+        <v>12.43393648731601</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.94914554122692</v>
+        <v>18.42357389812959</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.94914551573394</v>
+        <v>8.016832830429841</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.94914553687067</v>
+        <v>21.01082891251214</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.94914554342675</v>
+        <v>25.3588851804841</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.94914553421773</v>
+        <v>22.37444233679503</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.94914555752235</v>
+        <v>28.60572395932559</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.94914556477783</v>
+        <v>32.28940256913484</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.94914553190318</v>
+        <v>2.37315823683122</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.94914556514693</v>
+        <v>21.73439356294003</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.9491455754583</v>
+        <v>28.05773667237367</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.94914554925679</v>
+        <v>-4.022033947124307</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.94914557277214</v>
+        <v>24.32439944631961</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.94914557988674</v>
+        <v>29.93642382526587</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.94914555717335</v>
+        <v>-4.095571264969546</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.94914558317055</v>
+        <v>14.606027340734</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.94914559103604</v>
+        <v>21.48174041128939</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.94914556477552</v>
+        <v>9.200684198648501</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.94914558752801</v>
+        <v>24.71169288127228</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.94914558783501</v>
+        <v>21.57656255463191</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.94914557747022</v>
+        <v>18.56616899315372</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.94914560228249</v>
+        <v>26.28445583552788</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.9491456098351</v>
+        <v>30.39525331594795</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.94914557359787</v>
+        <v>-1.475893302719008</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.94914560893706</v>
+        <v>20.24883557983175</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.94914561970704</v>
+        <v>26.96469611165631</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.94914559871486</v>
+        <v>-3.057454999339559</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.94914562128372</v>
+        <v>25.60795113736834</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.9491456280258</v>
+        <v>31.69803551397032</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.94914560783721</v>
+        <v>-5.152404257971298</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.94914563278802</v>
+        <v>14.24176430309807</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.94914564024167</v>
+        <v>21.68170227112919</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.94914561594685</v>
+        <v>10.31122379120584</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.94914563778354</v>
+        <v>26.39736381911284</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.9491456443069</v>
+        <v>31.87942268652183</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.9491456339147</v>
+        <v>31.50335066595212</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.94914565795642</v>
+        <v>39.75185300938539</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.94914566507353</v>
+        <v>44.68779817258045</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.94914562840978</v>
+        <v>9.237987256524173</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.94914566275443</v>
+        <v>33.16589328054364</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.94914567301434</v>
+        <v>40.92499903348052</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.9491456135912</v>
+        <v>36.27099678477268</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.94914560301252</v>
+        <v>34.97404519635578</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.94914562823634</v>
+        <v>43.11114300339894</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.94914563570763</v>
+        <v>47.27707298392574</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.94914559825691</v>
+        <v>13.49104783378452</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.94914563430655</v>
+        <v>37.35966227535485</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.94914564493535</v>
+        <v>43.84289553899028</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.9491456216334</v>
+        <v>8.871140382624816</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.94914564465154</v>
+        <v>39.52664852495499</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.94914565129744</v>
+        <v>45.4003198572428</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.94914563246714</v>
+        <v>9.768734202460539</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.94914565791466</v>
+        <v>31.00177499198747</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.94914566526197</v>
+        <v>38.18120822451928</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.94914564096561</v>
+        <v>26.21885463164938</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.94914566323702</v>
+        <v>43.91474186259869</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.94914566966732</v>
+        <v>49.16928041448028</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.9491456590581</v>
+        <v>50.59193953396505</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.94914568349332</v>
+        <v>59.23961553751215</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.9491456905246</v>
+        <v>64.2071987252358</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.94914565269226</v>
+        <v>26.86660133362081</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.94914568772062</v>
+        <v>52.94620518273466</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.94914569783416</v>
+        <v>60.41512275224336</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.94914561807483</v>
+        <v>37.69649025057848</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.94914560751262</v>
+        <v>36.59038283457863</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.94914563261779</v>
+        <v>44.78305754237105</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.94914564002688</v>
+        <v>49.04438476099742</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.94914560262705</v>
+        <v>14.88043958801554</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.94914563853328</v>
+        <v>39.14339850726873</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.94914564906719</v>
+        <v>45.73153189532955</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.94914562553146</v>
+        <v>10.1074954207188</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.94914564845963</v>
+        <v>41.04861321287191</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.94914565504375</v>
+        <v>46.99562026612804</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.94914563664784</v>
+        <v>11.92976606643022</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.94914566199588</v>
+        <v>33.51217763913693</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.9491456692749</v>
+        <v>40.75174280379387</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.94914564513826</v>
+        <v>28.34983745920007</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.94914566732261</v>
+        <v>46.35474580048103</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.94914567369314</v>
+        <v>51.66767348036316</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.94914566309928</v>
+        <v>53.28928473510157</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.94914568742096</v>
+        <v>61.98693212181769</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.94914569439092</v>
+        <v>67.03587137836178</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.94914565661775</v>
+        <v>29.32858966406432</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.94914569150918</v>
+        <v>55.80313450963314</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.94914570152871</v>
+        <v>63.34660804941811</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.9491455944118</v>
+        <v>29.7302575408636</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.94914558387968</v>
+        <v>26.79011700015908</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.94914560897772</v>
+        <v>34.82537046042513</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.94914561657615</v>
+        <v>39.24993233575925</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.94914557973105</v>
+        <v>5.790488681184712</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.94914561551605</v>
+        <v>28.92015380945792</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.94914562634285</v>
+        <v>36.06905041808967</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.9491456045914</v>
+        <v>4.121432140813987</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.94914562744719</v>
+        <v>34.0681203498946</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.94914563422129</v>
+        <v>40.49169025969233</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.94914561432984</v>
+        <v>4.476430325526426</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.94914563959787</v>
+        <v>25.12766387969282</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.94914564708692</v>
+        <v>32.90419364956307</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.94914562258485</v>
+        <v>20.14198736681986</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.94914564469917</v>
+        <v>37.31867712459886</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.94914565125351</v>
+        <v>43.08822230865061</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.94914564069204</v>
+        <v>42.8517315175434</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.94914566501258</v>
+        <v>51.41750353433841</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.94914567216892</v>
+        <v>56.65462266404463</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.94914563490182</v>
+        <v>19.53739409693605</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.94914566968312</v>
+        <v>44.92267454595855</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.94914567999176</v>
+        <v>53.06678007712551</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.94914556392192</v>
+        <v>1.080264206408238</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.94914558586468</v>
+        <v>27.24503187908248</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.94914559273434</v>
+        <v>31.96136860276047</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.94914557320693</v>
+        <v>5.06387847368557</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.94914559746556</v>
+        <v>21.40752030415497</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.94914560506026</v>
+        <v>27.42099039854783</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.94914558021777</v>
+        <v>16.667541381515</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.94914560144868</v>
+        <v>30.34354997132056</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.94914560809547</v>
+        <v>34.70283969122329</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.94914559777024</v>
+        <v>32.17063415457127</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.94914562120451</v>
+        <v>38.68560816922506</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.94914562855096</v>
+        <v>42.23149451978206</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.94914559355049</v>
+        <v>12.45228614772767</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.94914562694236</v>
+        <v>32.63270757974649</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.94914563739641</v>
+        <v>39.0461762429268</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.94914560989879</v>
+        <v>0.8716562130219252</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.94914563348597</v>
+        <v>29.9932971162676</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.94914564066058</v>
+        <v>35.37005408312455</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.94914562079468</v>
+        <v>0.3394991616025251</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.94914564687128</v>
+        <v>19.64805918199</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.94914565480312</v>
+        <v>26.27513361400834</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.94914562922711</v>
+        <v>13.84996651884093</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.9491456520491</v>
+        <v>29.89119466274918</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.94914558649229</v>
+        <v>10.0541564120074</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.94914560887693</v>
+        <v>38.09360117106365</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.94914561564409</v>
+        <v>42.56213590341411</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.94914559746687</v>
+        <v>16.59474441664144</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.94914562221402</v>
+        <v>34.67590140353671</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.9491456296954</v>
+        <v>40.38097296556865</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.94914560488148</v>
+        <v>29.01778985480091</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.94914562653993</v>
+        <v>44.21255031716277</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.94914563308756</v>
+        <v>48.30449349021275</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.94914562261086</v>
+        <v>47.60780155748891</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.94914564643861</v>
+        <v>54.52924004102697</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.94914565369178</v>
+        <v>58.0911991037949</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.94914561754148</v>
+        <v>26.42820741160936</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.94914565160578</v>
+        <v>48.63337277803782</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.94914566190386</v>
+        <v>54.71233381445505</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.94914563434169</v>
+        <v>12.12366299832817</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.94914565839665</v>
+        <v>43.27872610104079</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.94914566546258</v>
+        <v>48.43171473228791</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.94914564703517</v>
+        <v>14.56403166916743</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.94914567362893</v>
+        <v>35.7634897133644</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.94914568144061</v>
+        <v>42.10775449294762</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.94914565589941</v>
+        <v>29.02044951144073</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.94914567917401</v>
+        <v>46.71167454450658</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.94914559052358</v>
+        <v>10.16602143132485</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.94914561282002</v>
+        <v>38.47212327955815</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.94914561952479</v>
+        <v>43.01719636676577</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.94914560177963</v>
+        <v>17.48204814409707</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.94914562642927</v>
+        <v>35.89823155822641</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.94914563384167</v>
+        <v>41.66508482260123</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.94914560919579</v>
+        <v>29.86507665275189</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.9491456307689</v>
+        <v>45.35398937259357</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.94914563725616</v>
+        <v>49.50523529470895</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.94914562680883</v>
+        <v>49.06575168196063</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.94914565052629</v>
+        <v>56.05091783692344</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.94914565771699</v>
+        <v>59.69586310243984</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.94914562161902</v>
+        <v>27.62082090203919</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.94914565554911</v>
+        <v>50.2049647485464</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.94914566575224</v>
+        <v>56.359638911361</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.9491456383209</v>
+        <v>12.76878040662953</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.94914566228003</v>
+        <v>44.20954607450101</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.94914566928052</v>
+        <v>49.45558166012834</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.94914565130096</v>
+        <v>16.11262022628983</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.94914567778876</v>
+        <v>37.66644659738083</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.9491456855281</v>
+        <v>44.0902451738736</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.94914566015995</v>
+        <v>30.53323001098907</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.9491456833418</v>
+        <v>48.53667832282895</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.94914556934467</v>
+        <v>5.202919427325817</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.94914559156551</v>
+        <v>32.53968398129622</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.94914559846893</v>
+        <v>37.5787779441938</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.94914557924373</v>
+        <v>11.39289874212878</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.9491456038098</v>
+        <v>28.88115121147194</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.94914561144182</v>
+        <v>35.21727667120896</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.94914558639378</v>
+        <v>23.09111355405873</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.94914560789375</v>
+        <v>37.75924645912701</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.94914561457322</v>
+        <v>42.39510642413637</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.94914560409996</v>
+        <v>40.11711769160742</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.94914562780669</v>
+        <v>46.93683046060019</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.94914563519544</v>
+        <v>50.76616575589588</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.94914559961113</v>
+        <v>19.35639418959822</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.94914563342618</v>
+        <v>40.86318482612627</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.94914564393162</v>
+        <v>47.64825807595977</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.94914561612698</v>
+        <v>6.587711963785377</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.94914564001163</v>
+        <v>36.99581808993965</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.94914564722111</v>
+        <v>42.74097858510704</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.94914562767808</v>
+        <v>8.490822629057469</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.94914565408356</v>
+        <v>29.05933593950719</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.94914566205393</v>
+        <v>36.05827603002079</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.94914563626609</v>
+        <v>22.14254243361763</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.9491456593759</v>
+        <v>39.27536914338581</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.94914565899096</v>
+        <v>34.69694380924653</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.94914564734357</v>
+        <v>32.60955501920071</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.94914567255374</v>
+        <v>40.85068693809222</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.94914568020735</v>
+        <v>44.99919587517097</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.94914564128879</v>
+        <v>11.98233074047459</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.9491456771831</v>
+        <v>35.75117392372138</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.94914568810123</v>
+        <v>42.68852520964366</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.94914565906431</v>
+        <v>3.677890951485754</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.94914568193997</v>
+        <v>34.09687249391962</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.94914568875875</v>
+        <v>40.29136840823124</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.94914567133043</v>
+        <v>3.522367608833981</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.94914569662043</v>
+        <v>24.48659017351709</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.94914570415887</v>
+        <v>32.02541491212934</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.94914568028682</v>
+        <v>19.07776200853801</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.94914570242037</v>
+        <v>36.52744825144414</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.94914570901794</v>
+        <v>42.08989099930631</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.94914569740106</v>
+        <v>42.91453553938018</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.94914572178127</v>
+        <v>51.57975206396215</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.94914572897636</v>
+        <v>56.54206709407151</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.94914568989841</v>
+        <v>20.19192403997549</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.94914572470995</v>
+        <v>45.88027888405455</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.94914573508658</v>
+        <v>53.81474005877304</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.94914568601071</v>
+        <v>51.2714814327736</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.94914567416905</v>
+        <v>51.05124553157575</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.94914569978959</v>
+        <v>59.71850785489343</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.94914570734276</v>
+        <v>63.88803807994905</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.94914566719949</v>
+        <v>28.94664544511688</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.94914570380566</v>
+        <v>54.92241291070383</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.94914571455839</v>
+        <v>61.54934714122632</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.94914568306212</v>
+        <v>17.11420960223089</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.94914570638696</v>
+        <v>49.57822154854856</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.949145713095</v>
+        <v>55.49209863955484</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.94914569707257</v>
+        <v>20.10083878332008</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.94914572285915</v>
+        <v>42.96162137158196</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.94914573027517</v>
+        <v>50.16487746383923</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.9491457064445</v>
+        <v>36.68180986638124</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.94914572901265</v>
+        <v>55.78887107144713</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.94914573550308</v>
+        <v>61.06150541676347</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.94914572368594</v>
+        <v>63.83889621199992</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.94914574845751</v>
+        <v>72.90748424272215</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.94914575554967</v>
+        <v>77.86668522166386</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.94914571529538</v>
+        <v>39.62470393340983</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.94914575079045</v>
+        <v>67.52657310746224</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.94914576099856</v>
+        <v>75.09176958796678</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.94914569011519</v>
+        <v>53.17116700484696</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.94914567830284</v>
+        <v>53.15296405774549</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.94914570380277</v>
+        <v>61.8775882975691</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.94914571129026</v>
+        <v>66.13926317990683</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.9491456712161</v>
+        <v>30.80915196427456</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.94914570767641</v>
+        <v>57.18578669444241</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.94914571832957</v>
+        <v>63.90814375551875</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.94914568663563</v>
+        <v>18.76181149594834</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.94914570986893</v>
+        <v>51.51531461357753</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.94914571651243</v>
+        <v>57.49497690546917</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.94914570091178</v>
+        <v>22.70821763711223</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.94914572659715</v>
+        <v>45.92494394102325</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.94914573394182</v>
+        <v>53.17907889994024</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.9491457102729</v>
+        <v>39.2730588164564</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.94914573275248</v>
+        <v>58.69427037460699</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.94914573918046</v>
+        <v>64.01791888248357</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.94914572739085</v>
+        <v>67.00450912170712</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.94914575204687</v>
+        <v>76.12461054652464</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.94914575907465</v>
+        <v>81.16169306825964</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.94914571889658</v>
+        <v>42.54319555488586</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.94914575425236</v>
+        <v>70.84690648273795</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.94914576436225</v>
+        <v>78.47669382936022</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.94914566635149</v>
+        <v>44.39796652538089</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.94914565453091</v>
+        <v>42.39861705817741</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.9491456800313</v>
+        <v>50.96886704953448</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.94914568772812</v>
+        <v>55.4311128115155</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.94914564817723</v>
+        <v>20.7681819975392</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.94914568452423</v>
+        <v>45.99773768468467</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.94914569549541</v>
+        <v>53.35799434540709</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.94914566560048</v>
+        <v>12.13253663160316</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.94914568876662</v>
+        <v>43.87722394603695</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.94914569561491</v>
+        <v>50.39564967868827</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.94914567851692</v>
+        <v>14.55379957624694</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.94914570412805</v>
+        <v>36.8204283748664</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.94914571169912</v>
+        <v>44.68345735816884</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.94914568763027</v>
+        <v>30.34980966013623</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.94914571004488</v>
+        <v>48.92857807862289</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.949145716671</v>
+        <v>54.76906005346331</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.94914570487907</v>
+        <v>55.75553755507249</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.94914572954145</v>
+        <v>64.74782927492518</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.94914573677316</v>
+        <v>70.01063157672948</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.94914569707078</v>
+        <v>31.94126098319875</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.94914573232436</v>
+        <v>59.13707986482505</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.94914574274589</v>
+        <v>67.44471386156366</v>
       </c>
     </row>
   </sheetData>
